--- a/common/buy_packages/大秦东出pop需求表.xlsx
+++ b/common/buy_packages/大秦东出pop需求表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Paradox Interactive\Victoria 3\mod\BreakOut_Breed\common\buy_packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0548A-0260-44EE-AFD7-90906CCDD40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7EA031-9865-421A-A3F8-F230BF41BD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,13 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>popneed_standard_clothing</t>
-  </si>
-  <si>
-    <t>popneed_standard_clothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标准衣物</t>
   </si>
   <si>
@@ -568,6 +561,13 @@
   </si>
   <si>
     <t>高档饮品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard_clothing</t>
+  </si>
+  <si>
+    <t>standard_clothing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1091,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>popneed_standard_clothing</c:v>
+                  <c:v>standard_clothing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2601,7 +2601,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>popneed_standard_clothing</c:v>
+                  <c:v>standard_clothing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4111,7 +4111,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>popneed_standard_clothing</c:v>
+                  <c:v>standard_clothing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7237,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD31C3-FEFD-463B-AD1E-6197327426AD}">
   <dimension ref="A1:AF106"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7495,13 +7495,13 @@
         <v>118</v>
       </c>
       <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
         <v>140</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" t="s">
-        <v>142</v>
       </c>
       <c r="I6" t="s">
         <v>113</v>
@@ -7510,16 +7510,16 @@
         <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L6" t="s">
         <v>127</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
         <v>114</v>
@@ -7534,46 +7534,46 @@
         <v>3</v>
       </c>
       <c r="S6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" t="s">
+        <v>152</v>
+      </c>
+      <c r="U6" t="s">
         <v>153</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" t="s">
+        <v>135</v>
+      </c>
+      <c r="X6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" t="s">
         <v>154</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Z6" t="s">
         <v>155</v>
       </c>
-      <c r="V6" t="s">
-        <v>139</v>
-      </c>
-      <c r="W6" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB6" t="s">
         <v>156</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AC6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE6" t="s">
         <v>157</v>
       </c>
-      <c r="AA6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>158</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -7596,10 +7596,10 @@
         <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
         <v>134</v>
@@ -7608,16 +7608,16 @@
         <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L7" t="s">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O7" t="s">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>132</v>
       </c>
       <c r="W7" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="X7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y7" t="s">
         <v>130</v>
@@ -7653,16 +7653,16 @@
         <v>133</v>
       </c>
       <c r="AA7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB7" t="s">
         <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AD7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AE7" t="s">
         <v>0</v>
@@ -20444,16 +20444,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H9:H106 C8:P8 M9:N106">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C9:G9 I9:L9 O9:P9">
     <cfRule type="colorScale" priority="100">
       <colorScale>
@@ -21434,6 +21424,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H106 C8:P8 M9:N106">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21443,7 +21443,7 @@
   <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -21469,10 +21469,10 @@
         <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
         <v>130</v>
@@ -21481,16 +21481,16 @@
         <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
@@ -27365,7 +27365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C917F90C-C83F-4A80-8D37-BFEC793405CB}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W78" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:AL100"/>
     </sheetView>
   </sheetViews>
@@ -27406,10 +27406,10 @@
         <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
         <v>130</v>
@@ -27418,16 +27418,16 @@
         <v>133</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -27496,39 +27496,39 @@
         <v>8</v>
       </c>
       <c r="W2" t="str">
-        <f>IF(D2&gt;0,CONCATENATE("popneed_",D$1," = ",D2),"")</f>
+        <f t="shared" ref="W2:AC2" si="0">IF(D2&gt;0,CONCATENATE("popneed_",D$1," = ",D2),"")</f>
         <v>popneed_heating = 3</v>
       </c>
       <c r="X2" t="str">
-        <f>IF(E2&gt;0,CONCATENATE("popneed_",E$1," = ",E2),"")</f>
+        <f t="shared" si="0"/>
         <v>popneed_basic_food = 1</v>
       </c>
       <c r="Y2" t="str">
-        <f>IF(F2&gt;0,CONCATENATE("popneed_",F$1," = ",F2),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z2" t="str">
-        <f>IF(G2&gt;0,CONCATENATE("popneed_",G$1," = ",G2),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AA2" t="str">
-        <f>IF(H2&gt;0,CONCATENATE("popneed_",H$1," = ",H2),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB2" t="str">
-        <f>IF(I2&gt;0,CONCATENATE("popneed_",I$1," = ",I2),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AC2" t="str">
-        <f>IF(J2&gt;0,CONCATENATE("popneed_",J$1," = ",J2),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD2" t="str">
-        <f t="shared" ref="AD2" si="0">IF(K2&gt;0,CONCATENATE("popneed_",K$1," = ",K2),"")</f>
+        <f t="shared" ref="AD2" si="1">IF(K2&gt;0,CONCATENATE("popneed_",K$1," = ",K2),"")</f>
         <v/>
       </c>
       <c r="AE2" t="str">
-        <f t="shared" ref="AE2" si="1">IF(L2&gt;0,CONCATENATE("popneed_",L$1," = ",L2),"")</f>
+        <f t="shared" ref="AE2" si="2">IF(L2&gt;0,CONCATENATE("popneed_",L$1," = ",L2),"")</f>
         <v/>
       </c>
       <c r="AF2" t="str">
@@ -27536,19 +27536,19 @@
         <v/>
       </c>
       <c r="AG2" t="str">
-        <f t="shared" ref="AG2:AJ2" si="2">IF(N2&gt;0,CONCATENATE("popneed_",N$1," = ",N2),"")</f>
+        <f t="shared" ref="AG2:AJ2" si="3">IF(N2&gt;0,CONCATENATE("popneed_",N$1," = ",N2),"")</f>
         <v/>
       </c>
       <c r="AH2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AI2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>popneed_intoxicants = 2</v>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AK2" t="s">
@@ -27611,66 +27611,66 @@
         <v>109</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U66" si="3">0.001*M3+0.002*L3+0.003*Q3</f>
+        <f t="shared" ref="U3:U66" si="4">0.001*M3+0.002*L3+0.003*Q3</f>
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W66" si="4">IF(D3&gt;0,CONCATENATE("popneed_",D$1," = ",D3),"")</f>
+        <f t="shared" ref="W3:W66" si="5">IF(D3&gt;0,CONCATENATE("popneed_",D$1," = ",D3),"")</f>
         <v>popneed_heating = 4</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3:X66" si="5">IF(E3&gt;0,CONCATENATE("popneed_",E$1," = ",E3),"")</f>
+        <f t="shared" ref="X3:X66" si="6">IF(E3&gt;0,CONCATENATE("popneed_",E$1," = ",E3),"")</f>
         <v>popneed_basic_food = 3</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y66" si="6">IF(F3&gt;0,CONCATENATE("popneed_",F$1," = ",F3),"")</f>
+        <f t="shared" ref="Y3:Y66" si="7">IF(F3&gt;0,CONCATENATE("popneed_",F$1," = ",F3),"")</f>
         <v/>
       </c>
       <c r="Z3" t="str">
-        <f t="shared" ref="Z3:Z66" si="7">IF(G3&gt;0,CONCATENATE("popneed_",G$1," = ",G3),"")</f>
+        <f t="shared" ref="Z3:Z66" si="8">IF(G3&gt;0,CONCATENATE("popneed_",G$1," = ",G3),"")</f>
         <v/>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA66" si="8">IF(H3&gt;0,CONCATENATE("popneed_",H$1," = ",H3),"")</f>
+        <f t="shared" ref="AA3:AA66" si="9">IF(H3&gt;0,CONCATENATE("popneed_",H$1," = ",H3),"")</f>
         <v/>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" ref="AB3:AB66" si="9">IF(I3&gt;0,CONCATENATE("popneed_",I$1," = ",I3),"")</f>
+        <f t="shared" ref="AB3:AB66" si="10">IF(I3&gt;0,CONCATENATE("popneed_",I$1," = ",I3),"")</f>
         <v/>
       </c>
       <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC66" si="10">IF(J3&gt;0,CONCATENATE("popneed_",J$1," = ",J3),"")</f>
+        <f t="shared" ref="AC3:AC66" si="11">IF(J3&gt;0,CONCATENATE("popneed_",J$1," = ",J3),"")</f>
         <v/>
       </c>
       <c r="AD3" t="str">
-        <f t="shared" ref="AD3:AD66" si="11">IF(K3&gt;0,CONCATENATE("popneed_",K$1," = ",K3),"")</f>
+        <f t="shared" ref="AD3:AD66" si="12">IF(K3&gt;0,CONCATENATE("popneed_",K$1," = ",K3),"")</f>
         <v/>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE66" si="12">IF(L3&gt;0,CONCATENATE("popneed_",L$1," = ",L3),"")</f>
+        <f t="shared" ref="AE3:AE66" si="13">IF(L3&gt;0,CONCATENATE("popneed_",L$1," = ",L3),"")</f>
         <v/>
       </c>
       <c r="AF3" t="str">
-        <f t="shared" ref="AF3:AF66" si="13">IF(M3&gt;0,CONCATENATE("popneed_",M$1," = ",M3),"")</f>
+        <f t="shared" ref="AF3:AF66" si="14">IF(M3&gt;0,CONCATENATE("popneed_",M$1," = ",M3),"")</f>
         <v/>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG66" si="14">IF(N3&gt;0,CONCATENATE("popneed_",N$1," = ",N3),"")</f>
+        <f t="shared" ref="AG3:AG66" si="15">IF(N3&gt;0,CONCATENATE("popneed_",N$1," = ",N3),"")</f>
         <v/>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH66" si="15">IF(O3&gt;0,CONCATENATE("popneed_",O$1," = ",O3),"")</f>
+        <f t="shared" ref="AH3:AH66" si="16">IF(O3&gt;0,CONCATENATE("popneed_",O$1," = ",O3),"")</f>
         <v/>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI66" si="16">IF(P3&gt;0,CONCATENATE("popneed_",P$1," = ",P3),"")</f>
+        <f t="shared" ref="AI3:AI66" si="17">IF(P3&gt;0,CONCATENATE("popneed_",P$1," = ",P3),"")</f>
         <v>popneed_intoxicants = 4</v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ66" si="17">IF(Q3&gt;0,CONCATENATE("popneed_",Q$1," = ",Q3),"")</f>
+        <f t="shared" ref="AJ3:AJ66" si="18">IF(Q3&gt;0,CONCATENATE("popneed_",Q$1," = ",Q3),"")</f>
         <v/>
       </c>
       <c r="AK3" t="s">
@@ -27739,66 +27739,66 @@
         <v>109</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 4</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 5</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 6</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK4" t="s">
@@ -27867,66 +27867,66 @@
         <v>109</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 5</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 9</v>
       </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK5" t="s">
@@ -27995,66 +27995,66 @@
         <v>109</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 5</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 2</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 2</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 13</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK6" t="s">
@@ -28123,66 +28123,66 @@
         <v>109</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 6</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 4</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 4</v>
       </c>
       <c r="AC7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 17</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK7" t="s">
@@ -28251,66 +28251,66 @@
         <v>109</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 6</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 6</v>
       </c>
       <c r="AA8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 6</v>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 21</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK8" t="s">
@@ -28379,66 +28379,66 @@
         <v>109</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 6</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 8</v>
       </c>
       <c r="AA9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 9</v>
       </c>
       <c r="AC9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 26</v>
       </c>
       <c r="AJ9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK9" t="s">
@@ -28504,66 +28504,66 @@
         <v>109</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 7</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 11</v>
       </c>
       <c r="AA10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 12</v>
       </c>
       <c r="AC10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 32</v>
       </c>
       <c r="AJ10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK10" t="s">
@@ -28629,66 +28629,66 @@
         <v>109</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 7</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 11</v>
       </c>
       <c r="AA11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 11</v>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 4</v>
       </c>
       <c r="AD11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 4</v>
       </c>
       <c r="AH11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 39</v>
       </c>
       <c r="AJ11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK11" t="s">
@@ -28754,66 +28754,66 @@
         <v>109</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 8</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 12</v>
       </c>
       <c r="AA12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 10</v>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 7</v>
       </c>
       <c r="AD12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 7</v>
       </c>
       <c r="AH12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 47</v>
       </c>
       <c r="AJ12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK12" t="s">
@@ -28879,66 +28879,66 @@
         <v>109</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 9</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 12</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 8</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 12</v>
       </c>
       <c r="AD13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 12</v>
       </c>
       <c r="AH13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 56</v>
       </c>
       <c r="AJ13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK13" t="s">
@@ -29004,66 +29004,66 @@
         <v>109</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 9</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 8</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 12</v>
       </c>
       <c r="AA14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 6</v>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 17</v>
       </c>
       <c r="AD14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 17</v>
       </c>
       <c r="AH14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 67</v>
       </c>
       <c r="AJ14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK14" t="s">
@@ -29126,66 +29126,66 @@
         <v>109</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 10</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 7</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 12</v>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>popneed_crude_items = 4</v>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 23</v>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 23</v>
       </c>
       <c r="AH15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 79</v>
       </c>
       <c r="AJ15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK15" t="s">
@@ -29248,42 +29248,42 @@
         <v>109</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7E-2</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 10</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 6</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 12</v>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 11</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 22</v>
       </c>
       <c r="AD16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE16" t="str">
@@ -29291,23 +29291,23 @@
         <v>popneed_luxury_drinks = 10</v>
       </c>
       <c r="AF16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 7</v>
       </c>
       <c r="AG16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 28</v>
       </c>
       <c r="AH16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 80</v>
       </c>
       <c r="AJ16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK16" t="s">
@@ -29370,66 +29370,66 @@
         <v>109</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 10</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 5</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 23</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 10</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 20</v>
       </c>
       <c r="AD17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 19</v>
       </c>
       <c r="AF17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 14</v>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 32</v>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 80</v>
       </c>
       <c r="AJ17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK17" t="s">
@@ -29492,66 +29492,66 @@
         <v>109</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 10</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 4</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 35</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 9</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 19</v>
       </c>
       <c r="AD18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 28</v>
       </c>
       <c r="AF18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 21</v>
       </c>
       <c r="AG18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 38</v>
       </c>
       <c r="AH18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 82</v>
       </c>
       <c r="AJ18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK18" t="s">
@@ -29614,66 +29614,66 @@
         <v>109</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.107</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 10</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 3</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 49</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 8</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 19</v>
       </c>
       <c r="AD19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 39</v>
       </c>
       <c r="AF19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 29</v>
       </c>
       <c r="AG19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 44</v>
       </c>
       <c r="AH19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 85</v>
       </c>
       <c r="AJ19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK19" t="s">
@@ -29736,66 +29736,66 @@
         <v>109</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 11</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>popneed_basic_food = 2</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 63</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 8</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 18</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 51</v>
       </c>
       <c r="AF20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 38</v>
       </c>
       <c r="AG20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 51</v>
       </c>
       <c r="AH20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 88</v>
       </c>
       <c r="AJ20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK20" t="s">
@@ -29858,66 +29858,66 @@
         <v>109</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.157</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 11</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 68</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 7</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 17</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 17</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 17</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 54</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 49</v>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 54</v>
       </c>
       <c r="AH21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 9</v>
       </c>
       <c r="AI21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 95</v>
       </c>
       <c r="AJ21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK21" t="s">
@@ -29980,66 +29980,66 @@
         <v>109</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 12</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 72</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 6</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 35</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 35</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 17</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 57</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 61</v>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 57</v>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 18</v>
       </c>
       <c r="AI22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 101</v>
       </c>
       <c r="AJ22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK22" t="s">
@@ -30102,66 +30102,66 @@
         <v>109</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 13</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 78</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 5</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 56</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 56</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 16</v>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 60</v>
       </c>
       <c r="AF23" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 75</v>
       </c>
       <c r="AG23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 60</v>
       </c>
       <c r="AH23" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 28</v>
       </c>
       <c r="AI23" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 109</v>
       </c>
       <c r="AJ23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK23" t="s">
@@ -30224,66 +30224,66 @@
         <v>109</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.218</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 13</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 84</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 4</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 80</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 80</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 15</v>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 64</v>
       </c>
       <c r="AF24" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 90</v>
       </c>
       <c r="AG24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 64</v>
       </c>
       <c r="AH24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 40</v>
       </c>
       <c r="AI24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 117</v>
       </c>
       <c r="AJ24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK24" t="s">
@@ -30346,66 +30346,66 @@
         <v>109</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24399999999999999</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 14</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 90</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>popneed_simple_clothing = 2</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 108</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 108</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 14</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 68</v>
       </c>
       <c r="AF25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 108</v>
       </c>
       <c r="AG25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 68</v>
       </c>
       <c r="AH25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 54</v>
       </c>
       <c r="AI25" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 126</v>
       </c>
       <c r="AJ25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK25" t="s">
@@ -30468,66 +30468,66 @@
         <v>109</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 15</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 98</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 118</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 118</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 13</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 20</v>
       </c>
       <c r="AE26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 73</v>
       </c>
       <c r="AF26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 130</v>
       </c>
       <c r="AG26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 73</v>
       </c>
       <c r="AH26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 71</v>
       </c>
       <c r="AI26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 138</v>
       </c>
       <c r="AJ26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK26" t="s">
@@ -30590,66 +30590,66 @@
         <v>109</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 16</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 107</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 128</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 128</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 11</v>
       </c>
       <c r="AD27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 43</v>
       </c>
       <c r="AE27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 78</v>
       </c>
       <c r="AF27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 154</v>
       </c>
       <c r="AG27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 78</v>
       </c>
       <c r="AH27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 90</v>
       </c>
       <c r="AI27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 150</v>
       </c>
       <c r="AJ27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK27" t="s">
@@ -30712,66 +30712,66 @@
         <v>109</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 17</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 117</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 140</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 140</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 9</v>
       </c>
       <c r="AD28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 70</v>
       </c>
       <c r="AE28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 84</v>
       </c>
       <c r="AF28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 182</v>
       </c>
       <c r="AG28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 84</v>
       </c>
       <c r="AH28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 112</v>
       </c>
       <c r="AI28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 163</v>
       </c>
       <c r="AJ28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK28" t="s">
@@ -30834,66 +30834,66 @@
         <v>109</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39600000000000002</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 19</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 127</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 153</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 153</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 7</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 102</v>
       </c>
       <c r="AE29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 91</v>
       </c>
       <c r="AF29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 214</v>
       </c>
       <c r="AG29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 91</v>
       </c>
       <c r="AH29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 137</v>
       </c>
       <c r="AI29" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 178</v>
       </c>
       <c r="AJ29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK29" t="s">
@@ -30956,66 +30956,66 @@
         <v>109</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 20</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 139</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 167</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 167</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>popneed_household_items = 4</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 139</v>
       </c>
       <c r="AE30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 98</v>
       </c>
       <c r="AF30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 250</v>
       </c>
       <c r="AG30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 98</v>
       </c>
       <c r="AH30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 167</v>
       </c>
       <c r="AI30" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 195</v>
       </c>
       <c r="AJ30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK30" t="s">
@@ -31078,66 +31078,66 @@
         <v>109</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63800000000000001</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 22</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 153</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 184</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 184</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 153</v>
       </c>
       <c r="AE31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 106</v>
       </c>
       <c r="AF31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 294</v>
       </c>
       <c r="AG31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 106</v>
       </c>
       <c r="AH31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 181</v>
       </c>
       <c r="AI31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 214</v>
       </c>
       <c r="AJ31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 44</v>
       </c>
       <c r="AK31" t="s">
@@ -31200,66 +31200,66 @@
         <v>109</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8610000000000001</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 24</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 168</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 202</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 202</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 168</v>
       </c>
       <c r="AE32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 115</v>
       </c>
       <c r="AF32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 343</v>
       </c>
       <c r="AG32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 115</v>
       </c>
       <c r="AH32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 196</v>
       </c>
       <c r="AI32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 235</v>
       </c>
       <c r="AJ32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 96</v>
       </c>
       <c r="AK32" t="s">
@@ -31322,66 +31322,66 @@
         <v>109</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1260000000000001</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 26</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 185</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 222</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 222</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 185</v>
       </c>
       <c r="AE33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 125</v>
       </c>
       <c r="AF33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 399</v>
       </c>
       <c r="AG33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 125</v>
       </c>
       <c r="AH33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 213</v>
       </c>
       <c r="AI33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 259</v>
       </c>
       <c r="AJ33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 159</v>
       </c>
       <c r="AK33" t="s">
@@ -31444,66 +31444,66 @@
         <v>109</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4330000000000001</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 28</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 204</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 245</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 245</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 204</v>
       </c>
       <c r="AE34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 135</v>
       </c>
       <c r="AF34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 464</v>
       </c>
       <c r="AG34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 135</v>
       </c>
       <c r="AH34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 231</v>
       </c>
       <c r="AI34" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 285</v>
       </c>
       <c r="AJ34" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 233</v>
       </c>
       <c r="AK34" t="s">
@@ -31566,66 +31566,66 @@
         <v>109</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7959999999999998</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="X35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 225</v>
       </c>
       <c r="Z35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 270</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 270</v>
       </c>
       <c r="AB35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 225</v>
       </c>
       <c r="AE35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 147</v>
       </c>
       <c r="AF35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 539</v>
       </c>
       <c r="AG35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 147</v>
       </c>
       <c r="AH35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 251</v>
       </c>
       <c r="AI35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 315</v>
       </c>
       <c r="AJ35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 321</v>
       </c>
       <c r="AK35" t="s">
@@ -31688,66 +31688,66 @@
         <v>109</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2170000000000001</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 33</v>
       </c>
       <c r="X36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 248</v>
       </c>
       <c r="Z36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 298</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 298</v>
       </c>
       <c r="AB36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 248</v>
       </c>
       <c r="AE36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 159</v>
       </c>
       <c r="AF36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 624</v>
       </c>
       <c r="AG36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 159</v>
       </c>
       <c r="AH36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 272</v>
       </c>
       <c r="AI36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 347</v>
       </c>
       <c r="AJ36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 425</v>
       </c>
       <c r="AK36" t="s">
@@ -31810,66 +31810,66 @@
         <v>109</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7090000000000001</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 36</v>
       </c>
       <c r="X37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 274</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 329</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 329</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 274</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 173</v>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 722</v>
       </c>
       <c r="AG37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 173</v>
       </c>
       <c r="AH37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 296</v>
       </c>
       <c r="AI37" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 383</v>
       </c>
       <c r="AJ37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 547</v>
       </c>
       <c r="AK37" t="s">
@@ -31932,66 +31932,66 @@
         <v>109</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.286</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 39</v>
       </c>
       <c r="X38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 303</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 363</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 363</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 303</v>
       </c>
       <c r="AE38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 189</v>
       </c>
       <c r="AF38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 835</v>
       </c>
       <c r="AG38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 189</v>
       </c>
       <c r="AH38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 322</v>
       </c>
       <c r="AI38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 424</v>
       </c>
       <c r="AJ38" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 691</v>
       </c>
       <c r="AK38" t="s">
@@ -32054,66 +32054,66 @@
         <v>109</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9540000000000002</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 42</v>
       </c>
       <c r="X39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 335</v>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 402</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 402</v>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 335</v>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 205</v>
       </c>
       <c r="AF39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 964</v>
       </c>
       <c r="AG39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 205</v>
       </c>
       <c r="AH39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 351</v>
       </c>
       <c r="AI39" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 469</v>
       </c>
       <c r="AJ39" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 860</v>
       </c>
       <c r="AK39" t="s">
@@ -32176,66 +32176,66 @@
         <v>109</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7329999999999997</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 46</v>
       </c>
       <c r="X40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 371</v>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 445</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 445</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 371</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 224</v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 1111</v>
       </c>
       <c r="AG40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 224</v>
       </c>
       <c r="AH40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 382</v>
       </c>
       <c r="AI40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 519</v>
       </c>
       <c r="AJ40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 1058</v>
       </c>
       <c r="AK40" t="s">
@@ -32298,66 +32298,66 @@
         <v>109</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.641</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 50</v>
       </c>
       <c r="X41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 415</v>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 497</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 497</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 415</v>
       </c>
       <c r="AE41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 246</v>
       </c>
       <c r="AF41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 1243</v>
       </c>
       <c r="AG41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 246</v>
       </c>
       <c r="AH41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 420</v>
       </c>
       <c r="AI41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 580</v>
       </c>
       <c r="AJ41" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 1302</v>
       </c>
       <c r="AK41" t="s">
@@ -32420,66 +32420,66 @@
         <v>109</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6940000000000008</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="X42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 464</v>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 556</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 556</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 464</v>
       </c>
       <c r="AE42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 270</v>
       </c>
       <c r="AF42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 1390</v>
       </c>
       <c r="AG42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 270</v>
       </c>
       <c r="AH42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 462</v>
       </c>
       <c r="AI42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 649</v>
       </c>
       <c r="AJ42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 1588</v>
       </c>
       <c r="AK42" t="s">
@@ -32542,66 +32542,66 @@
         <v>109</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9240000000000004</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 61</v>
       </c>
       <c r="X43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 519</v>
       </c>
       <c r="Z43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA43" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 622</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 622</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 519</v>
       </c>
       <c r="AE43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 297</v>
       </c>
       <c r="AF43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 1555</v>
       </c>
       <c r="AG43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 297</v>
       </c>
       <c r="AH43" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 508</v>
       </c>
       <c r="AI43" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 726</v>
       </c>
       <c r="AJ43" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 1925</v>
       </c>
       <c r="AK43" t="s">
@@ -32664,66 +32664,66 @@
         <v>109</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3509999999999991</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 67</v>
       </c>
       <c r="X44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 580</v>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 696</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 696</v>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 580</v>
       </c>
       <c r="AE44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 327</v>
       </c>
       <c r="AF44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 1740</v>
       </c>
       <c r="AG44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 327</v>
       </c>
       <c r="AH44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 559</v>
       </c>
       <c r="AI44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 812</v>
       </c>
       <c r="AJ44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 2319</v>
       </c>
       <c r="AK44" t="s">
@@ -32786,66 +32786,66 @@
         <v>109</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.007999999999999</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 73</v>
       </c>
       <c r="X45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 649</v>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA45" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 779</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 779</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 649</v>
       </c>
       <c r="AE45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 359</v>
       </c>
       <c r="AF45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 1947</v>
       </c>
       <c r="AG45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 359</v>
       </c>
       <c r="AH45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 615</v>
       </c>
       <c r="AI45" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 909</v>
       </c>
       <c r="AJ45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 2781</v>
       </c>
       <c r="AK45" t="s">
@@ -32908,66 +32908,66 @@
         <v>109</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.936000000000002</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 80</v>
       </c>
       <c r="X46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 727</v>
       </c>
       <c r="Z46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA46" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 872</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 872</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 727</v>
       </c>
       <c r="AE46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 395</v>
       </c>
       <c r="AF46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 2180</v>
       </c>
       <c r="AG46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 395</v>
       </c>
       <c r="AH46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 676</v>
       </c>
       <c r="AI46" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 1018</v>
       </c>
       <c r="AJ46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 3322</v>
       </c>
       <c r="AK46" t="s">
@@ -33030,66 +33030,66 @@
         <v>109</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.164999999999999</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 88</v>
       </c>
       <c r="X47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 814</v>
       </c>
       <c r="Z47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 977</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 977</v>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 814</v>
       </c>
       <c r="AE47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 434</v>
       </c>
       <c r="AF47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 2441</v>
       </c>
       <c r="AG47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 434</v>
       </c>
       <c r="AH47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 743</v>
       </c>
       <c r="AI47" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 1140</v>
       </c>
       <c r="AJ47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 3952</v>
       </c>
       <c r="AK47" t="s">
@@ -33152,66 +33152,66 @@
         <v>109</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.751999999999999</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 97</v>
       </c>
       <c r="X48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 912</v>
       </c>
       <c r="Z48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA48" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 1094</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 1094</v>
       </c>
       <c r="AB48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 912</v>
       </c>
       <c r="AE48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 478</v>
       </c>
       <c r="AF48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 2735</v>
       </c>
       <c r="AG48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 478</v>
       </c>
       <c r="AH48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 817</v>
       </c>
       <c r="AI48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 1276</v>
       </c>
       <c r="AJ48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 4687</v>
       </c>
       <c r="AK48" t="s">
@@ -33274,66 +33274,66 @@
         <v>109</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.746000000000002</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 107</v>
       </c>
       <c r="X49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 1022</v>
       </c>
       <c r="Z49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA49" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 1226</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 1226</v>
       </c>
       <c r="AB49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 1022</v>
       </c>
       <c r="AE49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 525</v>
       </c>
       <c r="AF49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 3064</v>
       </c>
       <c r="AG49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 525</v>
       </c>
       <c r="AH49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 898</v>
       </c>
       <c r="AI49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 1430</v>
       </c>
       <c r="AJ49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 5544</v>
       </c>
       <c r="AK49" t="s">
@@ -33396,66 +33396,66 @@
         <v>109</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.204000000000001</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 117</v>
       </c>
       <c r="X50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 1145</v>
       </c>
       <c r="Z50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA50" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 1374</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 1374</v>
       </c>
       <c r="AB50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 1145</v>
       </c>
       <c r="AE50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 577</v>
       </c>
       <c r="AF50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 3433</v>
       </c>
       <c r="AG50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 577</v>
       </c>
       <c r="AH50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 987</v>
       </c>
       <c r="AI50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 1603</v>
       </c>
       <c r="AJ50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 6539</v>
       </c>
       <c r="AK50" t="s">
@@ -33518,66 +33518,66 @@
         <v>109</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.208000000000002</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 129</v>
       </c>
       <c r="X51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 1283</v>
       </c>
       <c r="Z51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 1540</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 1540</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 1283</v>
       </c>
       <c r="AE51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 634</v>
       </c>
       <c r="AF51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 3849</v>
       </c>
       <c r="AG51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 634</v>
       </c>
       <c r="AH51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1084</v>
       </c>
       <c r="AI51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 1796</v>
       </c>
       <c r="AJ51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 7697</v>
       </c>
       <c r="AK51" t="s">
@@ -33640,66 +33640,66 @@
         <v>109</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.832000000000001</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 141</v>
       </c>
       <c r="X52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 1439</v>
       </c>
       <c r="Z52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 1726</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 1726</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 1439</v>
       </c>
       <c r="AE52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 697</v>
       </c>
       <c r="AF52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 4315</v>
       </c>
       <c r="AG52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 697</v>
       </c>
       <c r="AH52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1192</v>
       </c>
       <c r="AI52" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 2014</v>
       </c>
       <c r="AJ52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 9041</v>
       </c>
       <c r="AK52" t="s">
@@ -33762,66 +33762,66 @@
         <v>109</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.166000000000004</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 155</v>
       </c>
       <c r="X53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 1613</v>
       </c>
       <c r="Z53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA53" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 1936</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 1936</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 1613</v>
       </c>
       <c r="AE53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 765</v>
       </c>
       <c r="AF53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 4839</v>
       </c>
       <c r="AG53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 765</v>
       </c>
       <c r="AH53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1309</v>
       </c>
       <c r="AI53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 2259</v>
       </c>
       <c r="AJ53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 10599</v>
       </c>
       <c r="AK53" t="s">
@@ -33884,66 +33884,66 @@
         <v>109</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.326000000000001</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 171</v>
       </c>
       <c r="X54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 1810</v>
       </c>
       <c r="Z54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA54" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 2171</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 2171</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 1810</v>
       </c>
       <c r="AE54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 840</v>
       </c>
       <c r="AF54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 5428</v>
       </c>
       <c r="AG54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 840</v>
       </c>
       <c r="AH54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1438</v>
       </c>
       <c r="AI54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 2533</v>
       </c>
       <c r="AJ54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 12406</v>
       </c>
       <c r="AK54" t="s">
@@ -34006,66 +34006,66 @@
         <v>109</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.433</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 187</v>
       </c>
       <c r="X55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 2030</v>
       </c>
       <c r="Z55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA55" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 2436</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 2436</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 2030</v>
       </c>
       <c r="AE55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 923</v>
       </c>
       <c r="AF55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 6090</v>
       </c>
       <c r="AG55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 923</v>
       </c>
       <c r="AH55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1579</v>
       </c>
       <c r="AI55" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 2842</v>
       </c>
       <c r="AJ55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 14499</v>
       </c>
       <c r="AK55" t="s">
@@ -34128,66 +34128,66 @@
         <v>109</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59.622999999999998</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 205</v>
       </c>
       <c r="X56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 2278</v>
       </c>
       <c r="Z56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA56" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 2734</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 2734</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 2278</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1013</v>
       </c>
       <c r="AF56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 6834</v>
       </c>
       <c r="AG56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1013</v>
       </c>
       <c r="AH56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1733</v>
       </c>
       <c r="AI56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 3189</v>
       </c>
       <c r="AJ56" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 16921</v>
       </c>
       <c r="AK56" t="s">
@@ -34250,66 +34250,66 @@
         <v>109</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.058000000000007</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 225</v>
       </c>
       <c r="X57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 2557</v>
       </c>
       <c r="Z57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 3068</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 3068</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 2557</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1111</v>
       </c>
       <c r="AF57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 7670</v>
       </c>
       <c r="AG57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1111</v>
       </c>
       <c r="AH57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 1902</v>
       </c>
       <c r="AI57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 3580</v>
       </c>
       <c r="AJ57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 19722</v>
       </c>
       <c r="AK57" t="s">
@@ -34372,66 +34372,66 @@
         <v>109</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.932000000000002</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 247</v>
       </c>
       <c r="X58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 2871</v>
       </c>
       <c r="Z58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA58" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 3445</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 3445</v>
       </c>
       <c r="AB58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 2871</v>
       </c>
       <c r="AE58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1219</v>
       </c>
       <c r="AF58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 8611</v>
       </c>
       <c r="AG58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1219</v>
       </c>
       <c r="AH58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 2086</v>
       </c>
       <c r="AI58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 4019</v>
       </c>
       <c r="AJ58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 22961</v>
       </c>
       <c r="AK58" t="s">
@@ -34494,66 +34494,66 @@
         <v>109</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.448000000000008</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 271</v>
       </c>
       <c r="X59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 3223</v>
       </c>
       <c r="Z59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 3868</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 3868</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 3223</v>
       </c>
       <c r="AE59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1337</v>
       </c>
       <c r="AF59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 9668</v>
       </c>
       <c r="AG59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1337</v>
       </c>
       <c r="AH59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 2288</v>
       </c>
       <c r="AI59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 4512</v>
       </c>
       <c r="AJ59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 26702</v>
       </c>
       <c r="AK59" t="s">
@@ -34616,66 +34616,66 @@
         <v>109</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106.85600000000001</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 297</v>
       </c>
       <c r="X60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 3620</v>
       </c>
       <c r="Z60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 4343</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 4343</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 3620</v>
       </c>
       <c r="AE60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1466</v>
       </c>
       <c r="AF60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 10858</v>
       </c>
       <c r="AG60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1466</v>
       </c>
       <c r="AH60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 2508</v>
       </c>
       <c r="AI60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 5067</v>
       </c>
       <c r="AJ60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 31022</v>
       </c>
       <c r="AK60" t="s">
@@ -34738,66 +34738,66 @@
         <v>109</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123.431</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 326</v>
       </c>
       <c r="X61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 4066</v>
       </c>
       <c r="Z61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 4879</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 4879</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 4066</v>
       </c>
       <c r="AE61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1607</v>
       </c>
       <c r="AF61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 12196</v>
       </c>
       <c r="AG61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1607</v>
       </c>
       <c r="AH61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 2749</v>
       </c>
       <c r="AI61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 5692</v>
       </c>
       <c r="AJ61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 36007</v>
       </c>
       <c r="AK61" t="s">
@@ -34860,66 +34860,66 @@
         <v>109</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142.49600000000001</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 357</v>
       </c>
       <c r="X62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 4568</v>
       </c>
       <c r="Z62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA62" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 5481</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 5481</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 4568</v>
       </c>
       <c r="AE62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1760</v>
       </c>
       <c r="AF62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 13702</v>
       </c>
       <c r="AG62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1760</v>
       </c>
       <c r="AH62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 3011</v>
       </c>
       <c r="AI62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 6395</v>
       </c>
       <c r="AJ62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 41758</v>
       </c>
       <c r="AK62" t="s">
@@ -34982,66 +34982,66 @@
         <v>109</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164.41400000000002</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 391</v>
       </c>
       <c r="X63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 5132</v>
       </c>
       <c r="Z63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA63" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 6159</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 6159</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 5132</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 1927</v>
       </c>
       <c r="AF63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 15396</v>
       </c>
       <c r="AG63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 1927</v>
       </c>
       <c r="AH63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 3297</v>
       </c>
       <c r="AI63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 7185</v>
       </c>
       <c r="AJ63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 48388</v>
       </c>
       <c r="AK63" t="s">
@@ -35104,66 +35104,66 @@
         <v>109</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189.60600000000002</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 427</v>
       </c>
       <c r="X64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 5768</v>
       </c>
       <c r="Z64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA64" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 6922</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 6922</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 5768</v>
       </c>
       <c r="AE64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 2108</v>
       </c>
       <c r="AF64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 17303</v>
       </c>
       <c r="AG64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 2108</v>
       </c>
       <c r="AH64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 3607</v>
       </c>
       <c r="AI64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 8075</v>
       </c>
       <c r="AJ64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 56029</v>
       </c>
       <c r="AK64" t="s">
@@ -35226,66 +35226,66 @@
         <v>109</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>218.55799999999999</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 467</v>
       </c>
       <c r="X65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 6484</v>
       </c>
       <c r="Z65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA65" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 7780</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 7780</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 6484</v>
       </c>
       <c r="AE65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 2306</v>
       </c>
       <c r="AF65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 19450</v>
       </c>
       <c r="AG65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 2306</v>
       </c>
       <c r="AH65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 3945</v>
       </c>
       <c r="AI65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 9077</v>
       </c>
       <c r="AJ65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 64832</v>
       </c>
       <c r="AK65" t="s">
@@ -35348,66 +35348,66 @@
         <v>109</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>251.81300000000002</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>popneed_heating = 511</v>
       </c>
       <c r="X66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>popneed_luxury_food = 7289</v>
       </c>
       <c r="Z66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA66" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_popneed_standard_clothing = 8747</v>
+        <f t="shared" si="9"/>
+        <v>popneed_standard_clothing = 8747</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>popneed_luxury_items = 7289</v>
       </c>
       <c r="AE66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>popneed_luxury_drinks = 2520</v>
       </c>
       <c r="AF66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>popneed_services = 21866</v>
       </c>
       <c r="AG66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>popneed_free_movement = 2520</v>
       </c>
       <c r="AH66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>popneed_communication = 4312</v>
       </c>
       <c r="AI66" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>popneed_intoxicants = 10205</v>
       </c>
       <c r="AJ66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>popneed_art = 74969</v>
       </c>
       <c r="AK66" t="s">
@@ -35470,66 +35470,66 @@
         <v>109</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" ref="U67:U100" si="18">0.001*M67+0.002*L67+0.003*Q67</f>
+        <f t="shared" ref="U67:U100" si="19">0.001*M67+0.002*L67+0.003*Q67</f>
         <v>290.00700000000001</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W100" si="19">IF(D67&gt;0,CONCATENATE("popneed_",D$1," = ",D67),"")</f>
+        <f t="shared" ref="W67:W100" si="20">IF(D67&gt;0,CONCATENATE("popneed_",D$1," = ",D67),"")</f>
         <v>popneed_heating = 558</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" ref="X67:X100" si="20">IF(E67&gt;0,CONCATENATE("popneed_",E$1," = ",E67),"")</f>
+        <f t="shared" ref="X67:X100" si="21">IF(E67&gt;0,CONCATENATE("popneed_",E$1," = ",E67),"")</f>
         <v/>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" ref="Y67:Y100" si="21">IF(F67&gt;0,CONCATENATE("popneed_",F$1," = ",F67),"")</f>
+        <f t="shared" ref="Y67:Y100" si="22">IF(F67&gt;0,CONCATENATE("popneed_",F$1," = ",F67),"")</f>
         <v>popneed_luxury_food = 8196</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z100" si="22">IF(G67&gt;0,CONCATENATE("popneed_",G$1," = ",G67),"")</f>
+        <f t="shared" ref="Z67:Z100" si="23">IF(G67&gt;0,CONCATENATE("popneed_",G$1," = ",G67),"")</f>
         <v/>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA100" si="23">IF(H67&gt;0,CONCATENATE("popneed_",H$1," = ",H67),"")</f>
-        <v>popneed_popneed_standard_clothing = 9835</v>
+        <f t="shared" ref="AA67:AA100" si="24">IF(H67&gt;0,CONCATENATE("popneed_",H$1," = ",H67),"")</f>
+        <v>popneed_standard_clothing = 9835</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB100" si="24">IF(I67&gt;0,CONCATENATE("popneed_",I$1," = ",I67),"")</f>
+        <f t="shared" ref="AB67:AB100" si="25">IF(I67&gt;0,CONCATENATE("popneed_",I$1," = ",I67),"")</f>
         <v/>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC100" si="25">IF(J67&gt;0,CONCATENATE("popneed_",J$1," = ",J67),"")</f>
+        <f t="shared" ref="AC67:AC100" si="26">IF(J67&gt;0,CONCATENATE("popneed_",J$1," = ",J67),"")</f>
         <v/>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD100" si="26">IF(K67&gt;0,CONCATENATE("popneed_",K$1," = ",K67),"")</f>
+        <f t="shared" ref="AD67:AD100" si="27">IF(K67&gt;0,CONCATENATE("popneed_",K$1," = ",K67),"")</f>
         <v>popneed_luxury_items = 8196</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE100" si="27">IF(L67&gt;0,CONCATENATE("popneed_",L$1," = ",L67),"")</f>
+        <f t="shared" ref="AE67:AE100" si="28">IF(L67&gt;0,CONCATENATE("popneed_",L$1," = ",L67),"")</f>
         <v>popneed_luxury_drinks = 2753</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF100" si="28">IF(M67&gt;0,CONCATENATE("popneed_",M$1," = ",M67),"")</f>
+        <f t="shared" ref="AF67:AF100" si="29">IF(M67&gt;0,CONCATENATE("popneed_",M$1," = ",M67),"")</f>
         <v>popneed_services = 24587</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG100" si="29">IF(N67&gt;0,CONCATENATE("popneed_",N$1," = ",N67),"")</f>
+        <f t="shared" ref="AG67:AG100" si="30">IF(N67&gt;0,CONCATENATE("popneed_",N$1," = ",N67),"")</f>
         <v>popneed_free_movement = 2753</v>
       </c>
       <c r="AH67" t="str">
-        <f t="shared" ref="AH67:AH100" si="30">IF(O67&gt;0,CONCATENATE("popneed_",O$1," = ",O67),"")</f>
+        <f t="shared" ref="AH67:AH100" si="31">IF(O67&gt;0,CONCATENATE("popneed_",O$1," = ",O67),"")</f>
         <v>popneed_communication = 4710</v>
       </c>
       <c r="AI67" t="str">
-        <f t="shared" ref="AI67:AI100" si="31">IF(P67&gt;0,CONCATENATE("popneed_",P$1," = ",P67),"")</f>
+        <f t="shared" ref="AI67:AI100" si="32">IF(P67&gt;0,CONCATENATE("popneed_",P$1," = ",P67),"")</f>
         <v>popneed_intoxicants = 11474</v>
       </c>
       <c r="AJ67" t="str">
-        <f t="shared" ref="AJ67:AJ100" si="32">IF(Q67&gt;0,CONCATENATE("popneed_",Q$1," = ",Q67),"")</f>
+        <f t="shared" ref="AJ67:AJ100" si="33">IF(Q67&gt;0,CONCATENATE("popneed_",Q$1," = ",Q67),"")</f>
         <v>popneed_art = 86638</v>
       </c>
       <c r="AK67" t="s">
@@ -35592,66 +35592,66 @@
         <v>109</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>333.85599999999999</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 609</v>
       </c>
       <c r="X68" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 9217</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA68" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 11060</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 11060</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD68" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 9217</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 3004</v>
       </c>
       <c r="AF68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 27650</v>
       </c>
       <c r="AG68" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 3004</v>
       </c>
       <c r="AH68" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 5141</v>
       </c>
       <c r="AI68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 12904</v>
       </c>
       <c r="AJ68" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 100066</v>
       </c>
       <c r="AK68" t="s">
@@ -35714,66 +35714,66 @@
         <v>109</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>384.19</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 664</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 10367</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA69" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 12440</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 12440</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 10367</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 3277</v>
       </c>
       <c r="AF69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 31100</v>
       </c>
       <c r="AG69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 3277</v>
       </c>
       <c r="AH69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 5607</v>
       </c>
       <c r="AI69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 14514</v>
       </c>
       <c r="AJ69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 115512</v>
       </c>
       <c r="AK69" t="s">
@@ -35836,66 +35836,66 @@
         <v>109</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>441.95500000000004</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 724</v>
       </c>
       <c r="X70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 11662</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA70" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 13994</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 13994</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC70" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 11662</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 3571</v>
       </c>
       <c r="AF70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 34985</v>
       </c>
       <c r="AG70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 3571</v>
       </c>
       <c r="AH70" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 6111</v>
       </c>
       <c r="AI70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 16327</v>
       </c>
       <c r="AJ70" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 133276</v>
       </c>
       <c r="AK70" t="s">
@@ -35958,66 +35958,66 @@
         <v>109</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>508.23199999999997</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 788</v>
       </c>
       <c r="X71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 13121</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA71" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 15745</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 15745</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC71" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 13121</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 3888</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 39362</v>
       </c>
       <c r="AG71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 3888</v>
       </c>
       <c r="AH71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 6653</v>
       </c>
       <c r="AI71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 18369</v>
       </c>
       <c r="AJ71" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 153698</v>
       </c>
       <c r="AK71" t="s">
@@ -36080,66 +36080,66 @@
         <v>109</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>584.25800000000004</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 857</v>
       </c>
       <c r="X72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 14765</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA72" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 17717</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 17717</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC72" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 14765</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 4229</v>
       </c>
       <c r="AF72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 44293</v>
       </c>
       <c r="AG72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 4229</v>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 7237</v>
       </c>
       <c r="AI72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 20670</v>
       </c>
       <c r="AJ72" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 177169</v>
       </c>
       <c r="AK72" t="s">
@@ -36202,66 +36202,66 @@
         <v>109</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>671.452</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 931</v>
       </c>
       <c r="X73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 16616</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA73" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 19940</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 19940</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 16616</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 4595</v>
       </c>
       <c r="AF73" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 49848</v>
       </c>
       <c r="AG73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 4595</v>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 7864</v>
       </c>
       <c r="AI73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 23263</v>
       </c>
       <c r="AJ73" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 204138</v>
       </c>
       <c r="AK73" t="s">
@@ -36324,66 +36324,66 @@
         <v>109</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>771.43499999999995</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1010</v>
       </c>
       <c r="X74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 18703</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 22443</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 22443</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC74" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 18703</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 4988</v>
       </c>
       <c r="AF74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 56108</v>
       </c>
       <c r="AG74" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 4988</v>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 8535</v>
       </c>
       <c r="AI74" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 26184</v>
       </c>
       <c r="AJ74" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 235117</v>
       </c>
       <c r="AK74" t="s">
@@ -36446,66 +36446,66 @@
         <v>109</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>886.05500000000006</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1095</v>
       </c>
       <c r="X75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 21054</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA75" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 25265</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 25265</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC75" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 21054</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 5407</v>
       </c>
       <c r="AF75" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 63162</v>
       </c>
       <c r="AG75" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 5407</v>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 9252</v>
       </c>
       <c r="AI75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 29476</v>
       </c>
       <c r="AJ75" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 270693</v>
       </c>
       <c r="AK75" t="s">
@@ -36568,66 +36568,66 @@
         <v>109</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1017.439</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1186</v>
       </c>
       <c r="X76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 23705</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 28445</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 28445</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC76" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 23705</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 5853</v>
       </c>
       <c r="AF76" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 71113</v>
       </c>
       <c r="AG76" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 5853</v>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 10016</v>
       </c>
       <c r="AI76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 33186</v>
       </c>
       <c r="AJ76" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 311540</v>
       </c>
       <c r="AK76" t="s">
@@ -36690,66 +36690,66 @@
         <v>109</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1168.009</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1282</v>
       </c>
       <c r="X77" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 26692</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 32030</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 32030</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC77" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 26692</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 6327</v>
       </c>
       <c r="AF77" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 80074</v>
       </c>
       <c r="AG77" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 6327</v>
       </c>
       <c r="AH77" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 10827</v>
       </c>
       <c r="AI77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 37368</v>
       </c>
       <c r="AJ77" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 358427</v>
       </c>
       <c r="AK77" t="s">
@@ -36812,66 +36812,66 @@
         <v>109</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1340.54</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1383</v>
       </c>
       <c r="X78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 30059</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 36071</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 36071</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC78" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 30059</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 6829</v>
       </c>
       <c r="AF78" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 90177</v>
       </c>
       <c r="AG78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 6829</v>
       </c>
       <c r="AH78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 11685</v>
       </c>
       <c r="AI78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 42083</v>
       </c>
       <c r="AJ78" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 412235</v>
       </c>
       <c r="AK78" t="s">
@@ -36934,66 +36934,66 @@
         <v>109</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1538.202</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1490</v>
       </c>
       <c r="X79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 33856</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 40627</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 40627</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC79" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 33856</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 7357</v>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 101566</v>
       </c>
       <c r="AG79" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 7357</v>
       </c>
       <c r="AH79" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 12589</v>
       </c>
       <c r="AI79" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 47398</v>
       </c>
       <c r="AJ79" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 473974</v>
       </c>
       <c r="AK79" t="s">
@@ -37056,66 +37056,66 @@
         <v>109</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1764.6220000000001</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W80" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1602</v>
       </c>
       <c r="X80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 38136</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 45764</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 45764</v>
       </c>
       <c r="AB80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC80" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 38136</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 7910</v>
       </c>
       <c r="AF80" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 114408</v>
       </c>
       <c r="AG80" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 7910</v>
       </c>
       <c r="AH80" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 13536</v>
       </c>
       <c r="AI80" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 53391</v>
       </c>
       <c r="AJ80" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 544798</v>
       </c>
       <c r="AK80" t="s">
@@ -37178,66 +37178,66 @@
         <v>109</v>
       </c>
       <c r="U81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2023.95</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W81" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1719</v>
       </c>
       <c r="X81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y81" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 42963</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 51556</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 51556</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC81" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 42963</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 8487</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 128889</v>
       </c>
       <c r="AG81" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 8487</v>
       </c>
       <c r="AH81" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 14523</v>
       </c>
       <c r="AI81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 60148</v>
       </c>
       <c r="AJ81" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 626029</v>
       </c>
       <c r="AK81" t="s">
@@ -37300,66 +37300,66 @@
         <v>109</v>
       </c>
       <c r="U82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2320.9180000000001</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W82" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1840</v>
       </c>
       <c r="X82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y82" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 48407</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 58088</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 58088</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC82" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 48407</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 9084</v>
       </c>
       <c r="AF82" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 145219</v>
       </c>
       <c r="AG82" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 9084</v>
       </c>
       <c r="AH82" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 15545</v>
       </c>
       <c r="AI82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 67769</v>
       </c>
       <c r="AJ82" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 719177</v>
       </c>
       <c r="AK82" t="s">
@@ -37422,66 +37422,66 @@
         <v>109</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2660.95</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W83" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1964</v>
       </c>
       <c r="X83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 54546</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 65455</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 65455</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC83" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 54546</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 9697</v>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 163637</v>
       </c>
       <c r="AG83" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 9697</v>
       </c>
       <c r="AH83" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 16595</v>
       </c>
       <c r="AI83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 76364</v>
       </c>
       <c r="AJ83" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 825973</v>
       </c>
       <c r="AK83" t="s">
@@ -37544,66 +37544,66 @@
         <v>109</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3050.241</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W84" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2090</v>
       </c>
       <c r="X84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 61471</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 73765</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 73765</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC84" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 61471</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 10321</v>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 184411</v>
       </c>
       <c r="AG84" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 10321</v>
       </c>
       <c r="AH84" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 17662</v>
       </c>
       <c r="AI84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 86059</v>
       </c>
       <c r="AJ84" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 948396</v>
       </c>
       <c r="AK84" t="s">
@@ -37666,66 +37666,66 @@
         <v>109</v>
       </c>
       <c r="U85" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3495.8670000000002</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W85" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2218</v>
       </c>
       <c r="X85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 69282</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 83138</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 83138</v>
       </c>
       <c r="AB85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC85" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 69282</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 10949</v>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 207845</v>
       </c>
       <c r="AG85" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 10949</v>
       </c>
       <c r="AH85" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 18736</v>
       </c>
       <c r="AI85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 96994</v>
       </c>
       <c r="AJ85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 1088708</v>
       </c>
       <c r="AK85" t="s">
@@ -37788,66 +37788,66 @@
         <v>109</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4005.915</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W86" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2343</v>
       </c>
       <c r="X86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 78094</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 93713</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 93713</v>
       </c>
       <c r="AB86" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 78094</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 11570</v>
       </c>
       <c r="AF86" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 234281</v>
       </c>
       <c r="AG86" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 11570</v>
       </c>
       <c r="AH86" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 19799</v>
       </c>
       <c r="AI86" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 109332</v>
       </c>
       <c r="AJ86" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 1249498</v>
       </c>
       <c r="AK86" t="s">
@@ -37910,66 +37910,66 @@
         <v>109</v>
       </c>
       <c r="U87" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4589.6350000000002</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2466</v>
       </c>
       <c r="X87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 88036</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 105644</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 105644</v>
       </c>
       <c r="AB87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC87" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 88036</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 12173</v>
       </c>
       <c r="AF87" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 264108</v>
       </c>
       <c r="AG87" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 12173</v>
       </c>
       <c r="AH87" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 20832</v>
       </c>
       <c r="AI87" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 123251</v>
       </c>
       <c r="AJ87" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 1433727</v>
       </c>
       <c r="AK87" t="s">
@@ -38032,66 +38032,66 @@
         <v>109</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5257.5940000000001</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W88" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2581</v>
       </c>
       <c r="X88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 99255</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA88" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 119105</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 119105</v>
       </c>
       <c r="AB88" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC88" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 99255</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 12744</v>
       </c>
       <c r="AF88" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 297763</v>
       </c>
       <c r="AG88" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 12744</v>
       </c>
       <c r="AH88" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 21808</v>
       </c>
       <c r="AI88" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 138956</v>
       </c>
       <c r="AJ88" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 1644781</v>
       </c>
       <c r="AK88" t="s">
@@ -38154,66 +38154,66 @@
         <v>109</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6021.8630000000003</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W89" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2686</v>
       </c>
       <c r="X89" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y89" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 111913</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA89" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 134296</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 134296</v>
       </c>
       <c r="AB89" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC89" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD89" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 111913</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 13264</v>
       </c>
       <c r="AF89" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 335739</v>
       </c>
       <c r="AG89" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 13264</v>
       </c>
       <c r="AH89" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 22698</v>
       </c>
       <c r="AI89" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 156679</v>
       </c>
       <c r="AJ89" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 1886532</v>
       </c>
       <c r="AK89" t="s">
@@ -38276,66 +38276,66 @@
         <v>109</v>
       </c>
       <c r="U90" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6896.2359999999999</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W90" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2777</v>
       </c>
       <c r="X90" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y90" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 126199</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA90" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 151439</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 151439</v>
       </c>
       <c r="AB90" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 126199</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 13711</v>
       </c>
       <c r="AF90" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 378596</v>
       </c>
       <c r="AG90" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 13711</v>
       </c>
       <c r="AH90" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 23463</v>
       </c>
       <c r="AI90" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 176679</v>
       </c>
       <c r="AJ90" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 2163406</v>
       </c>
       <c r="AK90" t="s">
@@ -38398,66 +38398,66 @@
         <v>109</v>
       </c>
       <c r="U91" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7896.4709999999995</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W91" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2847</v>
       </c>
       <c r="X91" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y91" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 142322</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA91" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 170786</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 170786</v>
       </c>
       <c r="AB91" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC91" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD91" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 142322</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 14057</v>
       </c>
       <c r="AF91" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 426965</v>
       </c>
       <c r="AG91" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 14057</v>
       </c>
       <c r="AH91" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 24055</v>
       </c>
       <c r="AI91" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 199251</v>
       </c>
       <c r="AJ91" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 2480464</v>
       </c>
       <c r="AK91" t="s">
@@ -38520,66 +38520,66 @@
         <v>109</v>
       </c>
       <c r="U92" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9040.5740000000005</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W92" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2890</v>
       </c>
       <c r="X92" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y92" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 160520</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 192624</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 192624</v>
       </c>
       <c r="AB92" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC92" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD92" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 160520</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 14269</v>
       </c>
       <c r="AF92" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 481560</v>
       </c>
       <c r="AG92" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 14269</v>
       </c>
       <c r="AH92" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 24418</v>
       </c>
       <c r="AI92" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 224728</v>
       </c>
       <c r="AJ92" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 2843492</v>
       </c>
       <c r="AK92" t="s">
@@ -38642,66 +38642,66 @@
         <v>109</v>
       </c>
       <c r="U93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10349.117</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W93" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2897</v>
       </c>
       <c r="X93" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y93" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 181062</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA93" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 217274</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 217274</v>
       </c>
       <c r="AB93" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC93" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD93" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 181062</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 14307</v>
       </c>
       <c r="AF93" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 543185</v>
       </c>
       <c r="AG93" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 14307</v>
       </c>
       <c r="AH93" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 24482</v>
       </c>
       <c r="AI93" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 253486</v>
       </c>
       <c r="AJ93" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 3259106</v>
       </c>
       <c r="AK93" t="s">
@@ -38764,66 +38764,66 @@
         <v>109</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11845.591</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2860</v>
       </c>
       <c r="X94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y94" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 204251</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 245101</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 245101</v>
       </c>
       <c r="AB94" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC94" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD94" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 204251</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 14122</v>
       </c>
       <c r="AF94" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 612752</v>
       </c>
       <c r="AG94" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 14122</v>
       </c>
       <c r="AH94" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 24165</v>
       </c>
       <c r="AI94" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 285951</v>
       </c>
       <c r="AJ94" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 3734865</v>
       </c>
       <c r="AK94" t="s">
@@ -38886,66 +38886,66 @@
         <v>109</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13556.832</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W95" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2766</v>
       </c>
       <c r="X95" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y95" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 230430</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 276516</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 276516</v>
       </c>
       <c r="AB95" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC95" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD95" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 230430</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 13656</v>
       </c>
       <c r="AF95" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 691290</v>
       </c>
       <c r="AG95" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 13656</v>
       </c>
       <c r="AH95" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 23368</v>
       </c>
       <c r="AI95" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 322602</v>
       </c>
       <c r="AJ95" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 4279410</v>
       </c>
       <c r="AK95" t="s">
@@ -39008,66 +39008,66 @@
         <v>109</v>
       </c>
       <c r="U96" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15513.498</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W96" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2600</v>
       </c>
       <c r="X96" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y96" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 259988</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA96" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 311985</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 311985</v>
       </c>
       <c r="AB96" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC96" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD96" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 259988</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 12839</v>
       </c>
       <c r="AF96" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 779963</v>
       </c>
       <c r="AG96" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 12839</v>
       </c>
       <c r="AH96" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 21971</v>
       </c>
       <c r="AI96" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 363983</v>
       </c>
       <c r="AJ96" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 4902619</v>
       </c>
       <c r="AK96" t="s">
@@ -39130,66 +39130,66 @@
         <v>109</v>
       </c>
       <c r="U97" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17750.601999999999</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W97" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 2347</v>
       </c>
       <c r="X97" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y97" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 293362</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA97" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 352034</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 352034</v>
       </c>
       <c r="AB97" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC97" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD97" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 293362</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 11590</v>
       </c>
       <c r="AF97" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 880085</v>
       </c>
       <c r="AG97" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 11590</v>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 19833</v>
       </c>
       <c r="AI97" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 410707</v>
       </c>
       <c r="AJ97" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 5615779</v>
       </c>
       <c r="AK97" t="s">
@@ -39252,66 +39252,66 @@
         <v>109</v>
       </c>
       <c r="U98" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20308.126</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1987</v>
       </c>
       <c r="X98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 331048</v>
       </c>
       <c r="Z98" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA98" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 397258</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 397258</v>
       </c>
       <c r="AB98" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC98" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD98" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 331048</v>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 9809</v>
       </c>
       <c r="AF98" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 993144</v>
       </c>
       <c r="AG98" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 9809</v>
       </c>
       <c r="AH98" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 16786</v>
       </c>
       <c r="AI98" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 463468</v>
       </c>
       <c r="AJ98" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 6431788</v>
       </c>
       <c r="AK98" t="s">
@@ -39374,66 +39374,66 @@
         <v>109</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23231.735000000001</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W99" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 1495</v>
       </c>
       <c r="X99" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y99" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 373607</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA99" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 448328</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 448328</v>
       </c>
       <c r="AB99" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC99" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD99" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 373607</v>
       </c>
       <c r="AE99" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 7380</v>
       </c>
       <c r="AF99" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 1120820</v>
       </c>
       <c r="AG99" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 7380</v>
       </c>
       <c r="AH99" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 12629</v>
       </c>
       <c r="AI99" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 523050</v>
       </c>
       <c r="AJ99" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 7365385</v>
       </c>
       <c r="AK99" t="s">
@@ -39496,66 +39496,66 @@
         <v>109</v>
       </c>
       <c r="U100" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26573.575000000001</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W100" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>popneed_heating = 844</v>
       </c>
       <c r="X100" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y100" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>popneed_luxury_food = 421671</v>
       </c>
       <c r="Z100" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA100" t="str">
-        <f t="shared" si="23"/>
-        <v>popneed_popneed_standard_clothing = 506005</v>
+        <f t="shared" si="24"/>
+        <v>popneed_standard_clothing = 506005</v>
       </c>
       <c r="AB100" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC100" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD100" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>popneed_luxury_items = 421671</v>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>popneed_luxury_drinks = 4165</v>
       </c>
       <c r="AF100" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 1265012</v>
       </c>
       <c r="AG100" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>popneed_free_movement = 4165</v>
       </c>
       <c r="AH100" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>popneed_communication = 7127</v>
       </c>
       <c r="AI100" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>popneed_intoxicants = 590339</v>
       </c>
       <c r="AJ100" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>popneed_art = 8433411</v>
       </c>
       <c r="AK100" t="s">

--- a/common/buy_packages/大秦东出pop需求表.xlsx
+++ b/common/buy_packages/大秦东出pop需求表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Paradox Interactive\Victoria 3\mod\BreakOut_Breed\common\buy_packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A82C06-349F-4DC7-8D64-6287E6663F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C4E040-12BC-4ECA-BDD4-DC2FEBF8B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39578,7 +39578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC33C0-9492-4E4F-85AF-04DBFEADC2C2}">
   <dimension ref="A1:AG106"/>
   <sheetViews>
-    <sheetView topLeftCell="O5" workbookViewId="0">
+    <sheetView topLeftCell="O83" workbookViewId="0">
       <selection activeCell="AG8" sqref="T8:AG106"/>
     </sheetView>
   </sheetViews>
@@ -40077,20 +40077,20 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>25*(EXP(A8*0.14)-1)</f>
-        <v>3.756844971430684</v>
+        <f>25*(EXP(A8*0.14))-28</f>
+        <v>0.75684497143068441</v>
       </c>
       <c r="R8">
         <f>Q8-Q7</f>
-        <v>3.756844971430684</v>
+        <v>0.75684497143068441</v>
       </c>
       <c r="S8">
         <f>SUM(T8:AG8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f>_xlfn.FLOOR.MATH($R8*C8/$B8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" ref="U8:AG8" si="1">_xlfn.FLOOR.MATH($R8*D8/$B8)</f>
@@ -40210,20 +40210,20 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q72" si="3">25*(EXP(A9*0.14)-1)</f>
-        <v>8.0782453084359211</v>
+        <f t="shared" ref="Q9:Q72" si="3">25*(EXP(A9*0.14))-28</f>
+        <v>5.0782453084359247</v>
       </c>
       <c r="R9">
         <f t="shared" ref="R9:R72" si="4">Q9-Q8</f>
-        <v>4.3214003370052367</v>
+        <v>4.3214003370052403</v>
       </c>
       <c r="S9">
         <f t="shared" ref="S9:S72" si="5">SUM(T9:AG9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <f>_xlfn.FLOOR.MATH($R9*C9/$B9)+T8</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <f t="shared" ref="U9:AG9" si="6">_xlfn.FLOOR.MATH($R9*D9/$B9)+U8</f>
@@ -40344,19 +40344,19 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>13.049038890465848</v>
+        <v>10.049038890465845</v>
       </c>
       <c r="R10">
         <f t="shared" si="4"/>
-        <v>4.9707935820299269</v>
+        <v>4.9707935820299198</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T10">
         <f t="shared" ref="T10:T73" si="7">_xlfn.FLOOR.MATH($R10*C10/$B10)+T9</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U10">
         <f t="shared" ref="U10:U73" si="8">_xlfn.FLOOR.MATH($R10*D10/$B10)+U9</f>
@@ -40477,19 +40477,19 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>18.76681250740253</v>
+        <v>15.766812507402534</v>
       </c>
       <c r="R11">
         <f t="shared" si="4"/>
-        <v>5.7177736169366824</v>
+        <v>5.7177736169366895</v>
       </c>
       <c r="S11">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T11">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U11">
         <f t="shared" si="8"/>
@@ -40610,19 +40610,19 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>25.343817686761916</v>
+        <v>22.343817686761916</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>6.5770051793593858</v>
+        <v>6.5770051793593822</v>
       </c>
       <c r="S12">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T12">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <f t="shared" si="8"/>
@@ -40743,7 +40743,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>32.909174419527297</v>
+        <v>29.909174419527297</v>
       </c>
       <c r="R13">
         <f t="shared" si="4"/>
@@ -40751,11 +40751,11 @@
       </c>
       <c r="S13">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T13">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <f t="shared" si="8"/>
@@ -40876,19 +40876,19 @@
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
-        <v>41.61140604823543</v>
+        <v>38.611406048235438</v>
       </c>
       <c r="R14">
         <f t="shared" si="4"/>
-        <v>8.7022316287081338</v>
+        <v>8.7022316287081409</v>
       </c>
       <c r="S14">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T14">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
@@ -41009,7 +41009,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>51.62135508232506</v>
+        <v>48.621355082325067</v>
       </c>
       <c r="R15">
         <f t="shared" si="4"/>
@@ -41017,11 +41017,11 @@
       </c>
       <c r="S15">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T15">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U15">
         <f t="shared" si="8"/>
@@ -41142,7 +41142,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>63.13553718413457</v>
+        <v>60.135537184134577</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
@@ -41150,11 +41150,11 @@
       </c>
       <c r="S16">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T16">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U16">
         <f t="shared" si="8"/>
@@ -41275,19 +41275,19 @@
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>76.379999171116879</v>
+        <v>73.379999171116879</v>
       </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>13.244461986982309</v>
+        <v>13.244461986982301</v>
       </c>
       <c r="S17">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U17">
         <f t="shared" si="8"/>
@@ -41408,7 +41408,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>91.614756774703139</v>
+        <v>88.614756774703139</v>
       </c>
       <c r="R18">
         <f t="shared" si="4"/>
@@ -41416,11 +41416,11 @@
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T18">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <f t="shared" si="8"/>
@@ -41541,19 +41541,19 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>109.13889927804938</v>
+        <v>106.13889927804939</v>
       </c>
       <c r="R19">
         <f t="shared" si="4"/>
-        <v>17.524142503346241</v>
+        <v>17.524142503346255</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T19">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <f t="shared" si="8"/>
@@ -41674,19 +41674,19 @@
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
-        <v>129.29646124708887</v>
+        <v>126.29646124708887</v>
       </c>
       <c r="R20">
         <f t="shared" si="4"/>
-        <v>20.157561969039492</v>
+        <v>20.157561969039477</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T20">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <f t="shared" si="8"/>
@@ -41807,7 +41807,7 @@
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
-        <v>152.48317662891583</v>
+        <v>149.48317662891583</v>
       </c>
       <c r="R21">
         <f t="shared" si="4"/>
@@ -41815,11 +41815,11 @@
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T21">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <f t="shared" si="8"/>
@@ -41940,7 +41940,7 @@
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>179.15424781419128</v>
+        <v>176.15424781419128</v>
       </c>
       <c r="R22">
         <f t="shared" si="4"/>
@@ -41948,11 +41948,11 @@
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T22">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <f t="shared" si="8"/>
@@ -42073,7 +42073,7 @@
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
-        <v>209.8332821860696</v>
+        <v>206.8332821860696</v>
       </c>
       <c r="R23">
         <f t="shared" si="4"/>
@@ -42081,11 +42081,11 @@
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T23">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U23">
         <f t="shared" si="8"/>
@@ -42206,7 +42206,7 @@
       </c>
       <c r="Q24">
         <f t="shared" si="3"/>
-        <v>245.12257159828158</v>
+        <v>242.12257159828158</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
@@ -42214,11 +42214,11 @@
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T24">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <f t="shared" si="8"/>
@@ -42339,7 +42339,7 @@
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>285.7149165894387</v>
+        <v>282.7149165894387</v>
       </c>
       <c r="R25">
         <f t="shared" si="4"/>
@@ -42347,11 +42347,11 @@
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T25">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U25">
         <f t="shared" si="8"/>
@@ -42472,7 +42472,7 @@
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>332.40722746694007</v>
+        <v>329.40722746694007</v>
       </c>
       <c r="R26">
         <f t="shared" si="4"/>
@@ -42480,11 +42480,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="5"/>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T26">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <f t="shared" si="8"/>
@@ -42605,7 +42605,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="3"/>
-        <v>386.11616927742637</v>
+        <v>383.11616927742637</v>
       </c>
       <c r="R27">
         <f t="shared" si="4"/>
@@ -42613,11 +42613,11 @@
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="T27">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U27">
         <f t="shared" si="8"/>
@@ -42738,7 +42738,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="3"/>
-        <v>447.89615780637621</v>
+        <v>444.89615780637621</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
@@ -42746,11 +42746,11 @@
       </c>
       <c r="S28">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="T28">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U28">
         <f t="shared" si="8"/>
@@ -42871,7 +42871,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="3"/>
-        <v>518.96005990492699</v>
+        <v>515.96005990492699</v>
       </c>
       <c r="R29">
         <f t="shared" si="4"/>
@@ -42879,11 +42879,11 @@
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T29">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <f t="shared" si="8"/>
@@ -43004,7 +43004,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="3"/>
-        <v>600.70300453344544</v>
+        <v>597.70300453344544</v>
       </c>
       <c r="R30">
         <f t="shared" si="4"/>
@@ -43012,11 +43012,11 @@
       </c>
       <c r="S30">
         <f t="shared" si="5"/>
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="T30">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U30">
         <f t="shared" si="8"/>
@@ -43137,7 +43137,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="3"/>
-        <v>694.72977198106719</v>
+        <v>691.72977198106719</v>
       </c>
       <c r="R31">
         <f t="shared" si="4"/>
@@ -43145,11 +43145,11 @@
       </c>
       <c r="S31">
         <f t="shared" si="5"/>
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="T31">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U31">
         <f t="shared" si="8"/>
@@ -43270,7 +43270,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="3"/>
-        <v>802.88629896730811</v>
+        <v>799.88629896730811</v>
       </c>
       <c r="R32">
         <f t="shared" si="4"/>
@@ -43278,11 +43278,11 @@
       </c>
       <c r="S32">
         <f t="shared" si="5"/>
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="T32">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U32">
         <f t="shared" si="8"/>
@@ -43403,7 +43403,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="3"/>
-        <v>927.29591813497586</v>
+        <v>924.29591813497586</v>
       </c>
       <c r="R33">
         <f t="shared" si="4"/>
@@ -43411,11 +43411,11 @@
       </c>
       <c r="S33">
         <f t="shared" si="5"/>
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="T33">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U33">
         <f t="shared" si="8"/>
@@ -43536,7 +43536,7 @@
       </c>
       <c r="Q34">
         <f t="shared" si="3"/>
-        <v>1070.4010433893495</v>
+        <v>1067.4010433893495</v>
       </c>
       <c r="R34">
         <f t="shared" si="4"/>
@@ -43544,11 +43544,11 @@
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="T34">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U34">
         <f t="shared" si="8"/>
@@ -43669,7 +43669,7 @@
       </c>
       <c r="Q35">
         <f t="shared" si="3"/>
-        <v>1235.0111194516376</v>
+        <v>1232.0111194516376</v>
       </c>
       <c r="R35">
         <f t="shared" si="4"/>
@@ -43677,11 +43677,11 @@
       </c>
       <c r="S35">
         <f t="shared" si="5"/>
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="T35">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U35">
         <f t="shared" si="8"/>
@@ -43802,7 +43802,7 @@
       </c>
       <c r="Q36">
         <f t="shared" si="3"/>
-        <v>1424.3577769739829</v>
+        <v>1421.3577769739829</v>
       </c>
       <c r="R36">
         <f t="shared" si="4"/>
@@ -43810,11 +43810,11 @@
       </c>
       <c r="S36">
         <f t="shared" si="5"/>
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="T36">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <f t="shared" si="8"/>
@@ -43935,7 +43935,7 @@
       </c>
       <c r="Q37">
         <f t="shared" si="3"/>
-        <v>1642.1582760231288</v>
+        <v>1639.1582760231288</v>
       </c>
       <c r="R37">
         <f t="shared" si="4"/>
@@ -43943,11 +43943,11 @@
       </c>
       <c r="S37">
         <f t="shared" si="5"/>
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="T37">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U37">
         <f t="shared" si="8"/>
@@ -44068,7 +44068,7 @@
       </c>
       <c r="Q38">
         <f t="shared" si="3"/>
-        <v>1892.6884834573916</v>
+        <v>1889.6884834573916</v>
       </c>
       <c r="R38">
         <f t="shared" si="4"/>
@@ -44076,11 +44076,11 @@
       </c>
       <c r="S38">
         <f t="shared" si="5"/>
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="T38">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U38">
         <f t="shared" si="8"/>
@@ -44201,7 +44201,7 @@
       </c>
       <c r="Q39">
         <f t="shared" si="3"/>
-        <v>2180.8668168912877</v>
+        <v>2177.8668168912877</v>
       </c>
       <c r="R39">
         <f t="shared" si="4"/>
@@ -44209,11 +44209,11 @@
       </c>
       <c r="S39">
         <f t="shared" si="5"/>
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="T39">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U39">
         <f t="shared" si="8"/>
@@ -44334,7 +44334,7 @@
       </c>
       <c r="Q40">
         <f t="shared" si="3"/>
-        <v>2512.3508032386408</v>
+        <v>2509.3508032386408</v>
       </c>
       <c r="R40">
         <f t="shared" si="4"/>
@@ -44342,11 +44342,11 @@
       </c>
       <c r="S40">
         <f t="shared" si="5"/>
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="T40">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U40">
         <f t="shared" si="8"/>
@@ -44467,7 +44467,7 @@
       </c>
       <c r="Q41">
         <f t="shared" si="3"/>
-        <v>2893.6481474747497</v>
+        <v>2890.6481474747497</v>
       </c>
       <c r="R41">
         <f t="shared" si="4"/>
@@ -44475,11 +44475,11 @@
       </c>
       <c r="S41">
         <f t="shared" si="5"/>
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="T41">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U41">
         <f t="shared" si="8"/>
@@ -44600,7 +44600,7 @@
       </c>
       <c r="Q42">
         <f t="shared" si="3"/>
-        <v>3332.2444921233882</v>
+        <v>3329.2444921233882</v>
       </c>
       <c r="R42">
         <f t="shared" si="4"/>
@@ -44608,11 +44608,11 @@
       </c>
       <c r="S42">
         <f t="shared" si="5"/>
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="T42">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <f t="shared" si="8"/>
@@ -44733,7 +44733,7 @@
       </c>
       <c r="Q43">
         <f t="shared" si="3"/>
-        <v>3836.7503756472752</v>
+        <v>3833.7503756472752</v>
       </c>
       <c r="R43">
         <f t="shared" si="4"/>
@@ -44741,11 +44741,11 @@
       </c>
       <c r="S43">
         <f t="shared" si="5"/>
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="T43">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U43">
         <f t="shared" si="8"/>
@@ -44866,7 +44866,7 @@
       </c>
       <c r="Q44">
         <f t="shared" si="3"/>
-        <v>4417.0702748341137</v>
+        <v>4414.0702748341137</v>
       </c>
       <c r="R44">
         <f t="shared" si="4"/>
@@ -44874,11 +44874,11 @@
       </c>
       <c r="S44">
         <f t="shared" si="5"/>
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="T44">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U44">
         <f t="shared" si="8"/>
@@ -44999,7 +44999,7 @@
       </c>
       <c r="Q45">
         <f t="shared" si="3"/>
-        <v>5084.5970498242013</v>
+        <v>5081.5970498242013</v>
       </c>
       <c r="R45">
         <f t="shared" si="4"/>
@@ -45007,11 +45007,11 @@
       </c>
       <c r="S45">
         <f t="shared" si="5"/>
-        <v>4972</v>
+        <v>4970</v>
       </c>
       <c r="T45">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U45">
         <f t="shared" si="8"/>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="Q46">
         <f t="shared" si="3"/>
-        <v>5852.4356091309692</v>
+        <v>5849.4356091309692</v>
       </c>
       <c r="R46">
         <f t="shared" si="4"/>
@@ -45140,11 +45140,11 @@
       </c>
       <c r="S46">
         <f t="shared" si="5"/>
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="T46">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U46">
         <f t="shared" si="8"/>
@@ -45265,7 +45265,7 @@
       </c>
       <c r="Q47">
         <f t="shared" si="3"/>
-        <v>6735.6601856538191</v>
+        <v>6732.6601856538191</v>
       </c>
       <c r="R47">
         <f t="shared" si="4"/>
@@ -45273,11 +45273,11 @@
       </c>
       <c r="S47">
         <f t="shared" si="5"/>
-        <v>6618</v>
+        <v>6616</v>
       </c>
       <c r="T47">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U47">
         <f t="shared" si="8"/>
@@ -45398,7 +45398,7 @@
       </c>
       <c r="Q48">
         <f t="shared" si="3"/>
-        <v>7751.6102745348235</v>
+        <v>7748.6102745348235</v>
       </c>
       <c r="R48">
         <f t="shared" si="4"/>
@@ -45406,11 +45406,11 @@
       </c>
       <c r="S48">
         <f t="shared" si="5"/>
-        <v>7633</v>
+        <v>7631</v>
       </c>
       <c r="T48">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U48">
         <f t="shared" si="8"/>
@@ -45531,7 +45531,7 @@
       </c>
       <c r="Q49">
         <f t="shared" si="3"/>
-        <v>8920.2310427213215</v>
+        <v>8917.2310427213215</v>
       </c>
       <c r="R49">
         <f t="shared" si="4"/>
@@ -45539,11 +45539,11 @@
       </c>
       <c r="S49">
         <f t="shared" si="5"/>
-        <v>8797</v>
+        <v>8795</v>
       </c>
       <c r="T49">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U49">
         <f t="shared" si="8"/>
@@ -45664,7 +45664,7 @@
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
-        <v>10264.464893166649</v>
+        <v>10261.464893166649</v>
       </c>
       <c r="R50">
         <f t="shared" si="4"/>
@@ -45672,11 +45672,11 @@
       </c>
       <c r="S50">
         <f t="shared" si="5"/>
-        <v>10137</v>
+        <v>10135</v>
       </c>
       <c r="T50">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U50">
         <f t="shared" si="8"/>
@@ -45797,7 +45797,7 @@
       </c>
       <c r="Q51">
         <f t="shared" si="3"/>
-        <v>11810.701870870871</v>
+        <v>11807.701870870871</v>
       </c>
       <c r="R51">
         <f t="shared" si="4"/>
@@ -45805,11 +45805,11 @@
       </c>
       <c r="S51">
         <f t="shared" si="5"/>
-        <v>11679</v>
+        <v>11677</v>
       </c>
       <c r="T51">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U51">
         <f t="shared" si="8"/>
@@ -45930,7 +45930,7 @@
       </c>
       <c r="Q52">
         <f t="shared" si="3"/>
-        <v>13589.297753148236</v>
+        <v>13586.297753148236</v>
       </c>
       <c r="R52">
         <f t="shared" si="4"/>
@@ -45938,11 +45938,11 @@
       </c>
       <c r="S52">
         <f t="shared" si="5"/>
-        <v>13452</v>
+        <v>13450</v>
       </c>
       <c r="T52">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U52">
         <f t="shared" si="8"/>
@@ -46063,7 +46063,7 @@
       </c>
       <c r="Q53">
         <f t="shared" si="3"/>
-        <v>15635.169995287231</v>
+        <v>15632.169995287231</v>
       </c>
       <c r="R53">
         <f t="shared" si="4"/>
@@ -46071,11 +46071,11 @@
       </c>
       <c r="S53">
         <f t="shared" si="5"/>
-        <v>15495</v>
+        <v>15493</v>
       </c>
       <c r="T53">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U53">
         <f t="shared" si="8"/>
@@ -46196,7 +46196,7 @@
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
-        <v>17988.48323122902</v>
+        <v>17985.48323122902</v>
       </c>
       <c r="R54">
         <f t="shared" si="4"/>
@@ -46204,11 +46204,11 @@
       </c>
       <c r="S54">
         <f t="shared" si="5"/>
-        <v>17846</v>
+        <v>17844</v>
       </c>
       <c r="T54">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U54">
         <f t="shared" si="8"/>
@@ -46329,7 +46329,7 @@
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
-        <v>20695.437787036757</v>
+        <v>20692.437787036757</v>
       </c>
       <c r="R55">
         <f t="shared" si="4"/>
@@ -46337,11 +46337,11 @@
       </c>
       <c r="S55">
         <f t="shared" si="5"/>
-        <v>20549</v>
+        <v>20547</v>
       </c>
       <c r="T55">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U55">
         <f t="shared" si="8"/>
@@ -46462,7 +46462,7 @@
       </c>
       <c r="Q56">
         <f t="shared" si="3"/>
-        <v>23809.176687279603</v>
+        <v>23806.176687279603</v>
       </c>
       <c r="R56">
         <f t="shared" si="4"/>
@@ -46470,11 +46470,11 @@
       </c>
       <c r="S56">
         <f t="shared" si="5"/>
-        <v>23660</v>
+        <v>23658</v>
       </c>
       <c r="T56">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <f t="shared" si="8"/>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="Q57">
         <f t="shared" si="3"/>
-        <v>27390.828960711489</v>
+        <v>27387.828960711489</v>
       </c>
       <c r="R57">
         <f t="shared" si="4"/>
@@ -46603,11 +46603,11 @@
       </c>
       <c r="S57">
         <f t="shared" si="5"/>
-        <v>27240</v>
+        <v>27238</v>
       </c>
       <c r="T57">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <f t="shared" si="8"/>
@@ -46728,7 +46728,7 @@
       </c>
       <c r="Q58">
         <f t="shared" si="3"/>
-        <v>31510.709727457583</v>
+        <v>31507.709727457583</v>
       </c>
       <c r="R58">
         <f t="shared" si="4"/>
@@ -46736,11 +46736,11 @@
       </c>
       <c r="S58">
         <f t="shared" si="5"/>
-        <v>31358</v>
+        <v>31356</v>
       </c>
       <c r="T58">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <f t="shared" si="8"/>
@@ -46861,7 +46861,7 @@
       </c>
       <c r="Q59">
         <f t="shared" si="3"/>
-        <v>36249.700627861472</v>
+        <v>36246.700627861472</v>
       </c>
       <c r="R59">
         <f t="shared" si="4"/>
@@ -46869,11 +46869,11 @@
       </c>
       <c r="S59">
         <f t="shared" si="5"/>
-        <v>36094</v>
+        <v>36092</v>
       </c>
       <c r="T59">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U59">
         <f t="shared" si="8"/>
@@ -46994,7 +46994,7 @@
       </c>
       <c r="Q60">
         <f t="shared" si="3"/>
-        <v>41700.837693618851</v>
+        <v>41697.837693618851</v>
       </c>
       <c r="R60">
         <f t="shared" si="4"/>
@@ -47002,11 +47002,11 @@
       </c>
       <c r="S60">
         <f t="shared" si="5"/>
-        <v>41544</v>
+        <v>41542</v>
       </c>
       <c r="T60">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U60">
         <f t="shared" si="8"/>
@@ -47127,7 +47127,7 @@
       </c>
       <c r="Q61">
         <f t="shared" si="3"/>
-        <v>47971.137834339024</v>
+        <v>47968.137834339024</v>
       </c>
       <c r="R61">
         <f t="shared" si="4"/>
@@ -47135,11 +47135,11 @@
       </c>
       <c r="S61">
         <f t="shared" si="5"/>
-        <v>47812</v>
+        <v>47810</v>
       </c>
       <c r="T61">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U61">
         <f t="shared" si="8"/>
@@ -47260,7 +47260,7 @@
       </c>
       <c r="Q62">
         <f t="shared" si="3"/>
-        <v>55183.69979718027</v>
+        <v>55180.69979718027</v>
       </c>
       <c r="R62">
         <f t="shared" si="4"/>
@@ -47268,11 +47268,11 @@
       </c>
       <c r="S62">
         <f t="shared" si="5"/>
-        <v>55023</v>
+        <v>55021</v>
       </c>
       <c r="T62">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U62">
         <f t="shared" si="8"/>
@@ -47393,7 +47393,7 @@
       </c>
       <c r="Q63">
         <f t="shared" si="3"/>
-        <v>63480.120845670761</v>
+        <v>63477.120845670761</v>
       </c>
       <c r="R63">
         <f t="shared" si="4"/>
@@ -47401,11 +47401,11 @@
       </c>
       <c r="S63">
         <f t="shared" si="5"/>
-        <v>63318</v>
+        <v>63316</v>
       </c>
       <c r="T63">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U63">
         <f t="shared" si="8"/>
@@ -47526,7 +47526,7 @@
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
-        <v>73023.276602036975</v>
+        <v>73020.276602036975</v>
       </c>
       <c r="R64">
         <f t="shared" si="4"/>
@@ -47534,11 +47534,11 @@
       </c>
       <c r="S64">
         <f t="shared" si="5"/>
-        <v>72859</v>
+        <v>72857</v>
       </c>
       <c r="T64">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U64">
         <f t="shared" si="8"/>
@@ -47659,7 +47659,7 @@
       </c>
       <c r="Q65">
         <f t="shared" si="3"/>
-        <v>84000.51862699863</v>
+        <v>83997.51862699863</v>
       </c>
       <c r="R65">
         <f t="shared" si="4"/>
@@ -47667,11 +47667,11 @@
       </c>
       <c r="S65">
         <f t="shared" si="5"/>
-        <v>83835</v>
+        <v>83833</v>
       </c>
       <c r="T65">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U65">
         <f t="shared" si="8"/>
@@ -47792,7 +47792,7 @@
       </c>
       <c r="Q66">
         <f t="shared" si="3"/>
-        <v>96627.352512026482</v>
+        <v>96624.352512026482</v>
       </c>
       <c r="R66">
         <f t="shared" si="4"/>
@@ -47800,11 +47800,11 @@
       </c>
       <c r="S66">
         <f t="shared" si="5"/>
-        <v>96460</v>
+        <v>96458</v>
       </c>
       <c r="T66">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U66">
         <f t="shared" si="8"/>
@@ -47925,7 +47925,7 @@
       </c>
       <c r="Q67">
         <f t="shared" si="3"/>
-        <v>111151.66869249645</v>
+        <v>111148.66869249645</v>
       </c>
       <c r="R67">
         <f t="shared" si="4"/>
@@ -47933,11 +47933,11 @@
       </c>
       <c r="S67">
         <f t="shared" si="5"/>
-        <v>110984</v>
+        <v>110982</v>
       </c>
       <c r="T67">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U67">
         <f t="shared" si="8"/>
@@ -48058,7 +48058,7 @@
       </c>
       <c r="Q68">
         <f t="shared" si="3"/>
-        <v>127858.60904120932</v>
+        <v>127855.60904120932</v>
       </c>
       <c r="R68">
         <f t="shared" si="4"/>
@@ -48066,11 +48066,11 @@
       </c>
       <c r="S68">
         <f t="shared" si="5"/>
-        <v>127690</v>
+        <v>127688</v>
       </c>
       <c r="T68">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U68">
         <f t="shared" si="8"/>
@@ -48191,7 +48191,7 @@
       </c>
       <c r="Q69">
         <f t="shared" si="3"/>
-        <v>147076.16478340438</v>
+        <v>147073.16478340438</v>
       </c>
       <c r="R69">
         <f t="shared" si="4"/>
@@ -48199,11 +48199,11 @@
       </c>
       <c r="S69">
         <f t="shared" si="5"/>
-        <v>146907</v>
+        <v>146905</v>
       </c>
       <c r="T69">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U69">
         <f t="shared" si="8"/>
@@ -48324,7 +48324,7 @@
       </c>
       <c r="Q70">
         <f t="shared" si="3"/>
-        <v>169181.61563172934</v>
+        <v>169178.61563172934</v>
       </c>
       <c r="R70">
         <f t="shared" si="4"/>
@@ -48332,11 +48332,11 @@
       </c>
       <c r="S70">
         <f t="shared" si="5"/>
-        <v>169012</v>
+        <v>169010</v>
       </c>
       <c r="T70">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U70">
         <f t="shared" si="8"/>
@@ -48457,7 +48457,7 @@
       </c>
       <c r="Q71">
         <f t="shared" si="3"/>
-        <v>194608.9365544841</v>
+        <v>194605.9365544841</v>
       </c>
       <c r="R71">
         <f t="shared" si="4"/>
@@ -48465,11 +48465,11 @@
       </c>
       <c r="S71">
         <f t="shared" si="5"/>
-        <v>194439</v>
+        <v>194437</v>
       </c>
       <c r="T71">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U71">
         <f t="shared" si="8"/>
@@ -48590,7 +48590,7 @@
       </c>
       <c r="Q72">
         <f t="shared" si="3"/>
-        <v>223857.31758706309</v>
+        <v>223854.31758706309</v>
       </c>
       <c r="R72">
         <f t="shared" si="4"/>
@@ -48598,11 +48598,11 @@
       </c>
       <c r="S72">
         <f t="shared" si="5"/>
-        <v>223687</v>
+        <v>223685</v>
       </c>
       <c r="T72">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U72">
         <f t="shared" si="8"/>
@@ -48722,8 +48722,8 @@
         <v>200</v>
       </c>
       <c r="Q73">
-        <f t="shared" ref="Q73:Q106" si="25">25*(EXP(A73*0.14)-1)</f>
-        <v>257500.96394783098</v>
+        <f t="shared" ref="Q73:Q106" si="25">25*(EXP(A73*0.14))-28</f>
+        <v>257497.96394783098</v>
       </c>
       <c r="R73">
         <f t="shared" ref="R73:R106" si="26">Q73-Q72</f>
@@ -48731,11 +48731,11 @@
       </c>
       <c r="S73">
         <f t="shared" ref="S73:S106" si="27">SUM(T73:AG73)</f>
-        <v>257330</v>
+        <v>257328</v>
       </c>
       <c r="T73">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U73">
         <f t="shared" si="8"/>
@@ -48856,7 +48856,7 @@
       </c>
       <c r="Q74">
         <f t="shared" si="25"/>
-        <v>296200.3688546411</v>
+        <v>296197.3688546411</v>
       </c>
       <c r="R74">
         <f t="shared" si="26"/>
@@ -48864,11 +48864,11 @@
       </c>
       <c r="S74">
         <f t="shared" si="27"/>
-        <v>296029</v>
+        <v>296027</v>
       </c>
       <c r="T74">
         <f t="shared" ref="T74:T106" si="28">_xlfn.FLOOR.MATH($R74*C74/$B74)+T73</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U74">
         <f t="shared" ref="U74:U106" si="29">_xlfn.FLOOR.MATH($R74*D74/$B74)+U73</f>
@@ -48989,7 +48989,7 @@
       </c>
       <c r="Q75">
         <f t="shared" si="25"/>
-        <v>340715.28035031154</v>
+        <v>340712.28035031154</v>
       </c>
       <c r="R75">
         <f t="shared" si="26"/>
@@ -48997,11 +48997,11 @@
       </c>
       <c r="S75">
         <f t="shared" si="27"/>
-        <v>340543</v>
+        <v>340541</v>
       </c>
       <c r="T75">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U75">
         <f t="shared" si="29"/>
@@ -49122,7 +49122,7 @@
       </c>
       <c r="Q76">
         <f t="shared" si="25"/>
-        <v>391919.61670222902</v>
+        <v>391916.61670222902</v>
       </c>
       <c r="R76">
         <f t="shared" si="26"/>
@@ -49130,11 +49130,11 @@
       </c>
       <c r="S76">
         <f t="shared" si="27"/>
-        <v>391747</v>
+        <v>391745</v>
       </c>
       <c r="T76">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U76">
         <f t="shared" si="29"/>
@@ -49255,7 +49255,7 @@
       </c>
       <c r="Q77">
         <f t="shared" si="25"/>
-        <v>450818.62319571309</v>
+        <v>450815.62319571309</v>
       </c>
       <c r="R77">
         <f t="shared" si="26"/>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="S77">
         <f t="shared" si="27"/>
-        <v>450646</v>
+        <v>450644</v>
       </c>
       <c r="T77">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U77">
         <f t="shared" si="29"/>
@@ -49388,7 +49388,7 @@
       </c>
       <c r="Q78">
         <f t="shared" si="25"/>
-        <v>518568.60714388959</v>
+        <v>518565.60714388959</v>
       </c>
       <c r="R78">
         <f t="shared" si="26"/>
@@ -49396,11 +49396,11 @@
       </c>
       <c r="S78">
         <f t="shared" si="27"/>
-        <v>518395</v>
+        <v>518393</v>
       </c>
       <c r="T78">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U78">
         <f t="shared" si="29"/>
@@ -49521,7 +49521,7 @@
       </c>
       <c r="Q79">
         <f t="shared" si="25"/>
-        <v>596499.63855247467</v>
+        <v>596496.63855247467</v>
       </c>
       <c r="R79">
         <f t="shared" si="26"/>
@@ -49529,11 +49529,11 @@
       </c>
       <c r="S79">
         <f t="shared" si="27"/>
-        <v>596326</v>
+        <v>596324</v>
       </c>
       <c r="T79">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U79">
         <f t="shared" si="29"/>
@@ -49654,7 +49654,7 @@
       </c>
       <c r="Q80">
         <f t="shared" si="25"/>
-        <v>686141.66209968866</v>
+        <v>686138.66209968866</v>
       </c>
       <c r="R80">
         <f t="shared" si="26"/>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="S80">
         <f t="shared" si="27"/>
-        <v>685968</v>
+        <v>685966</v>
       </c>
       <c r="T80">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U80">
         <f t="shared" si="29"/>
@@ -49787,7 +49787,7 @@
       </c>
       <c r="Q81">
         <f t="shared" si="25"/>
-        <v>789254.53306259273</v>
+        <v>789251.53306259273</v>
       </c>
       <c r="R81">
         <f t="shared" si="26"/>
@@ -49795,11 +49795,11 @@
       </c>
       <c r="S81">
         <f t="shared" si="27"/>
-        <v>789080</v>
+        <v>789078</v>
       </c>
       <c r="T81">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U81">
         <f t="shared" si="29"/>
@@ -49920,7 +49920,7 @@
       </c>
       <c r="Q82">
         <f t="shared" si="25"/>
-        <v>907862.56685616751</v>
+        <v>907859.56685616751</v>
       </c>
       <c r="R82">
         <f t="shared" si="26"/>
@@ -49928,11 +49928,11 @@
       </c>
       <c r="S82">
         <f t="shared" si="27"/>
-        <v>907688</v>
+        <v>907686</v>
       </c>
       <c r="T82">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U82">
         <f t="shared" si="29"/>
@@ -50053,7 +50053,7 @@
       </c>
       <c r="Q83">
         <f t="shared" si="25"/>
-        <v>1044294.2804628876</v>
+        <v>1044291.2804628876</v>
       </c>
       <c r="R83">
         <f t="shared" si="26"/>
@@ -50061,11 +50061,11 @@
       </c>
       <c r="S83">
         <f t="shared" si="27"/>
-        <v>1044119</v>
+        <v>1044117</v>
       </c>
       <c r="T83">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U83">
         <f t="shared" si="29"/>
@@ -50186,7 +50186,7 @@
       </c>
       <c r="Q84">
         <f t="shared" si="25"/>
-        <v>1201228.1059578925</v>
+        <v>1201225.1059578925</v>
       </c>
       <c r="R84">
         <f t="shared" si="26"/>
@@ -50194,11 +50194,11 @@
       </c>
       <c r="S84">
         <f t="shared" si="27"/>
-        <v>1201052</v>
+        <v>1201050</v>
       </c>
       <c r="T84">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U84">
         <f t="shared" si="29"/>
@@ -50319,7 +50319,7 @@
       </c>
       <c r="Q85">
         <f t="shared" si="25"/>
-        <v>1381744.9735792291</v>
+        <v>1381741.9735792291</v>
       </c>
       <c r="R85">
         <f t="shared" si="26"/>
@@ -50327,11 +50327,11 @@
       </c>
       <c r="S85">
         <f t="shared" si="27"/>
-        <v>1381568</v>
+        <v>1381566</v>
       </c>
       <c r="T85">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U85">
         <f t="shared" si="29"/>
@@ -50452,7 +50452,7 @@
       </c>
       <c r="Q86">
         <f t="shared" si="25"/>
-        <v>1589388.7966558284</v>
+        <v>1589385.7966558284</v>
       </c>
       <c r="R86">
         <f t="shared" si="26"/>
@@ -50460,11 +50460,11 @@
       </c>
       <c r="S86">
         <f t="shared" si="27"/>
-        <v>1589211</v>
+        <v>1589209</v>
       </c>
       <c r="T86">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U86">
         <f t="shared" si="29"/>
@@ -50585,7 +50585,7 @@
       </c>
       <c r="Q87">
         <f t="shared" si="25"/>
-        <v>1828236.0458353895</v>
+        <v>1828233.0458353895</v>
       </c>
       <c r="R87">
         <f t="shared" si="26"/>
@@ -50593,11 +50593,11 @@
       </c>
       <c r="S87">
         <f t="shared" si="27"/>
-        <v>1828058</v>
+        <v>1828056</v>
       </c>
       <c r="T87">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U87">
         <f t="shared" si="29"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="Q88">
         <f t="shared" si="25"/>
-        <v>2102975.778495762</v>
+        <v>2102972.778495762</v>
       </c>
       <c r="R88">
         <f t="shared" si="26"/>
@@ -50726,11 +50726,11 @@
       </c>
       <c r="S88">
         <f t="shared" si="27"/>
-        <v>2102797</v>
+        <v>2102795</v>
       </c>
       <c r="T88">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U88">
         <f t="shared" si="29"/>
@@ -50851,7 +50851,7 @@
       </c>
       <c r="Q89">
         <f t="shared" si="25"/>
-        <v>2419001.6944800233</v>
+        <v>2418998.6944800233</v>
       </c>
       <c r="R89">
         <f t="shared" si="26"/>
@@ -50859,11 +50859,11 @@
       </c>
       <c r="S89">
         <f t="shared" si="27"/>
-        <v>2418822</v>
+        <v>2418820</v>
       </c>
       <c r="T89">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U89">
         <f t="shared" si="29"/>
@@ -50984,7 +50984,7 @@
       </c>
       <c r="Q90">
         <f t="shared" si="25"/>
-        <v>2782518.0253965794</v>
+        <v>2782515.0253965794</v>
       </c>
       <c r="R90">
         <f t="shared" si="26"/>
@@ -50992,11 +50992,11 @@
       </c>
       <c r="S90">
         <f t="shared" si="27"/>
-        <v>2782338</v>
+        <v>2782336</v>
       </c>
       <c r="T90">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U90">
         <f t="shared" si="29"/>
@@ -51117,7 +51117,7 @@
       </c>
       <c r="Q91">
         <f t="shared" si="25"/>
-        <v>3200661.3363066074</v>
+        <v>3200658.3363066074</v>
       </c>
       <c r="R91">
         <f t="shared" si="26"/>
@@ -51125,11 +51125,11 @@
       </c>
       <c r="S91">
         <f t="shared" si="27"/>
-        <v>3200481</v>
+        <v>3200479</v>
       </c>
       <c r="T91">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U91">
         <f t="shared" si="29"/>
@@ -51250,7 +51250,7 @@
       </c>
       <c r="Q92">
         <f t="shared" si="25"/>
-        <v>3681640.6310138176</v>
+        <v>3681637.6310138176</v>
       </c>
       <c r="R92">
         <f t="shared" si="26"/>
@@ -51258,11 +51258,11 @@
       </c>
       <c r="S92">
         <f t="shared" si="27"/>
-        <v>3681460</v>
+        <v>3681458</v>
       </c>
       <c r="T92">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U92">
         <f t="shared" si="29"/>
@@ -51383,7 +51383,7 @@
       </c>
       <c r="Q93">
         <f t="shared" si="25"/>
-        <v>4234898.5115083577</v>
+        <v>4234895.5115083577</v>
       </c>
       <c r="R93">
         <f t="shared" si="26"/>
@@ -51391,11 +51391,11 @@
       </c>
       <c r="S93">
         <f t="shared" si="27"/>
-        <v>4234717</v>
+        <v>4234715</v>
       </c>
       <c r="T93">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U93">
         <f t="shared" si="29"/>
@@ -51516,7 +51516,7 @@
       </c>
       <c r="Q94">
         <f t="shared" si="25"/>
-        <v>4871296.5554525098</v>
+        <v>4871293.5554525098</v>
       </c>
       <c r="R94">
         <f t="shared" si="26"/>
@@ -51524,11 +51524,11 @@
       </c>
       <c r="S94">
         <f t="shared" si="27"/>
-        <v>4871115</v>
+        <v>4871113</v>
       </c>
       <c r="T94">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U94">
         <f t="shared" si="29"/>
@@ -51649,7 +51649,7 @@
       </c>
       <c r="Q95">
         <f t="shared" si="25"/>
-        <v>5603328.5510454485</v>
+        <v>5603325.5510454485</v>
       </c>
       <c r="R95">
         <f t="shared" si="26"/>
@@ -51657,11 +51657,11 @@
       </c>
       <c r="S95">
         <f t="shared" si="27"/>
-        <v>5603146</v>
+        <v>5603144</v>
       </c>
       <c r="T95">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U95">
         <f t="shared" si="29"/>
@@ -51782,7 +51782,7 @@
       </c>
       <c r="Q96">
         <f t="shared" si="25"/>
-        <v>6445365.775501186</v>
+        <v>6445362.775501186</v>
       </c>
       <c r="R96">
         <f t="shared" si="26"/>
@@ -51790,11 +51790,11 @@
       </c>
       <c r="S96">
         <f t="shared" si="27"/>
-        <v>6445183</v>
+        <v>6445181</v>
       </c>
       <c r="T96">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U96">
         <f t="shared" si="29"/>
@@ -51915,7 +51915,7 @@
       </c>
       <c r="Q97">
         <f t="shared" si="25"/>
-        <v>7413939.1324550826</v>
+        <v>7413936.1324550826</v>
       </c>
       <c r="R97">
         <f t="shared" si="26"/>
@@ -51923,11 +51923,11 @@
       </c>
       <c r="S97">
         <f t="shared" si="27"/>
-        <v>7413756</v>
+        <v>7413754</v>
       </c>
       <c r="T97">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U97">
         <f t="shared" si="29"/>
@@ -52048,7 +52048,7 @@
       </c>
       <c r="Q98">
         <f t="shared" si="25"/>
-        <v>8528063.6872303411</v>
+        <v>8528060.6872303411</v>
       </c>
       <c r="R98">
         <f t="shared" si="26"/>
@@ -52056,11 +52056,11 @@
       </c>
       <c r="S98">
         <f t="shared" si="27"/>
-        <v>8527880</v>
+        <v>8527878</v>
       </c>
       <c r="T98">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U98">
         <f t="shared" si="29"/>
@@ -52181,7 +52181,7 @@
       </c>
       <c r="Q99">
         <f t="shared" si="25"/>
-        <v>9809611.9712517764</v>
+        <v>9809608.9712517764</v>
       </c>
       <c r="R99">
         <f t="shared" si="26"/>
@@ -52189,11 +52189,11 @@
       </c>
       <c r="S99">
         <f t="shared" si="27"/>
-        <v>9809428</v>
+        <v>9809426</v>
       </c>
       <c r="T99">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U99">
         <f t="shared" si="29"/>
@@ -52314,7 +52314,7 @@
       </c>
       <c r="Q100">
         <f t="shared" si="25"/>
-        <v>11283743.384332094</v>
+        <v>11283740.384332094</v>
       </c>
       <c r="R100">
         <f t="shared" si="26"/>
@@ -52322,11 +52322,11 @@
       </c>
       <c r="S100">
         <f t="shared" si="27"/>
-        <v>11283559</v>
+        <v>11283557</v>
       </c>
       <c r="T100">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U100">
         <f t="shared" si="29"/>
@@ -52447,7 +52447,7 @@
       </c>
       <c r="Q101">
         <f t="shared" si="25"/>
-        <v>12979398.12487076</v>
+        <v>12979395.12487076</v>
       </c>
       <c r="R101">
         <f t="shared" si="26"/>
@@ -52455,11 +52455,11 @@
       </c>
       <c r="S101">
         <f t="shared" si="27"/>
-        <v>12979213</v>
+        <v>12979211</v>
       </c>
       <c r="T101">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U101">
         <f t="shared" si="29"/>
@@ -52580,7 +52580,7 @@
       </c>
       <c r="Q102">
         <f t="shared" si="25"/>
-        <v>14929865.344820416</v>
+        <v>14929862.344820416</v>
       </c>
       <c r="R102">
         <f t="shared" si="26"/>
@@ -52588,11 +52588,11 @@
       </c>
       <c r="S102">
         <f t="shared" si="27"/>
-        <v>14929680</v>
+        <v>14929678</v>
       </c>
       <c r="T102">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U102">
         <f t="shared" si="29"/>
@@ -52713,7 +52713,7 @@
       </c>
       <c r="Q103">
         <f t="shared" si="25"/>
-        <v>17173436.683458429</v>
+        <v>17173433.683458429</v>
       </c>
       <c r="R103">
         <f t="shared" si="26"/>
@@ -52721,11 +52721,11 @@
       </c>
       <c r="S103">
         <f t="shared" si="27"/>
-        <v>17173251</v>
+        <v>17173249</v>
       </c>
       <c r="T103">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U103">
         <f t="shared" si="29"/>
@@ -52846,7 +52846,7 @@
       </c>
       <c r="Q104">
         <f t="shared" si="25"/>
-        <v>19754158.01016077</v>
+        <v>19754155.01016077</v>
       </c>
       <c r="R104">
         <f t="shared" si="26"/>
@@ -52854,11 +52854,11 @@
       </c>
       <c r="S104">
         <f t="shared" si="27"/>
-        <v>19753972</v>
+        <v>19753970</v>
       </c>
       <c r="T104">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U104">
         <f t="shared" si="29"/>
@@ -52979,7 +52979,7 @@
       </c>
       <c r="Q105">
         <f t="shared" si="25"/>
-        <v>22722694.134418499</v>
+        <v>22722691.134418499</v>
       </c>
       <c r="R105">
         <f t="shared" si="26"/>
@@ -52987,11 +52987,11 @@
       </c>
       <c r="S105">
         <f t="shared" si="27"/>
-        <v>22722508</v>
+        <v>22722506</v>
       </c>
       <c r="T105">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U105">
         <f t="shared" si="29"/>
@@ -53112,7 +53112,7 @@
       </c>
       <c r="Q106">
         <f t="shared" si="25"/>
-        <v>26137323.459113393</v>
+        <v>26137320.459113393</v>
       </c>
       <c r="R106">
         <f t="shared" si="26"/>
@@ -53120,11 +53120,11 @@
       </c>
       <c r="S106">
         <f t="shared" si="27"/>
-        <v>26137137</v>
+        <v>26137135</v>
       </c>
       <c r="T106">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U106">
         <f t="shared" si="29"/>
@@ -54180,8 +54180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D7B91-8547-4EB1-9E1D-CBB53FB5D60E}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R79" workbookViewId="0">
-      <selection activeCell="AL2" sqref="S2:AL100"/>
+    <sheetView tabSelected="1" topLeftCell="V81" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AL100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -54256,7 +54256,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -54312,7 +54312,7 @@
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:AF17" si="0">IF(D2&gt;0,CONCATENATE("popneed_",D$1," = ",D2),"")</f>
-        <v>popneed_heating = 2</v>
+        <v/>
       </c>
       <c r="X2" t="str">
         <f t="shared" si="0"/>
@@ -54378,7 +54378,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -54434,7 +54434,7 @@
       </c>
       <c r="W3" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 4</v>
+        <v>popneed_heating = 2</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" si="0"/>
@@ -54506,7 +54506,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -54562,7 +54562,7 @@
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 6</v>
+        <v>popneed_heating = 4</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="0"/>
@@ -54634,7 +54634,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -54690,7 +54690,7 @@
       </c>
       <c r="W5" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="0"/>
@@ -54762,7 +54762,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -54818,7 +54818,7 @@
       </c>
       <c r="W6" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="0"/>
@@ -54890,7 +54890,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -54946,7 +54946,7 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="0"/>
@@ -55018,7 +55018,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -55074,7 +55074,7 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="0"/>
@@ -55146,7 +55146,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -55202,7 +55202,7 @@
       </c>
       <c r="W9" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="0"/>
@@ -55271,7 +55271,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>19</v>
@@ -55327,7 +55327,7 @@
       </c>
       <c r="W10" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="0"/>
@@ -55396,7 +55396,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>22</v>
@@ -55452,7 +55452,7 @@
       </c>
       <c r="W11" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="0"/>
@@ -55521,7 +55521,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>24</v>
@@ -55577,7 +55577,7 @@
       </c>
       <c r="W12" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="0"/>
@@ -55646,7 +55646,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>26</v>
@@ -55702,7 +55702,7 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="0"/>
@@ -55771,7 +55771,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>27</v>
@@ -55827,7 +55827,7 @@
       </c>
       <c r="W14" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="0"/>
@@ -55893,7 +55893,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>27</v>
@@ -55949,7 +55949,7 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="0"/>
@@ -56015,7 +56015,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -56071,7 +56071,7 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="0"/>
@@ -56137,7 +56137,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>27</v>
@@ -56193,7 +56193,7 @@
       </c>
       <c r="W17" t="str">
         <f t="shared" si="0"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="0"/>
@@ -56259,7 +56259,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>27</v>
@@ -56315,7 +56315,7 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" ref="W18:AJ36" si="3">IF(D18&gt;0,CONCATENATE("popneed_",D$1," = ",D18),"")</f>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="3"/>
@@ -56381,7 +56381,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>27</v>
@@ -56437,7 +56437,7 @@
       </c>
       <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="3"/>
@@ -56503,7 +56503,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>27</v>
@@ -56559,7 +56559,7 @@
       </c>
       <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="3"/>
@@ -56625,7 +56625,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>27</v>
@@ -56681,7 +56681,7 @@
       </c>
       <c r="W21" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="3"/>
@@ -56747,7 +56747,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>27</v>
@@ -56803,7 +56803,7 @@
       </c>
       <c r="W22" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="3"/>
@@ -56869,7 +56869,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>27</v>
@@ -56925,7 +56925,7 @@
       </c>
       <c r="W23" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="3"/>
@@ -56991,7 +56991,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>27</v>
@@ -57047,7 +57047,7 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="3"/>
@@ -57113,7 +57113,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>27</v>
@@ -57169,7 +57169,7 @@
       </c>
       <c r="W25" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" si="3"/>
@@ -57235,7 +57235,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>27</v>
@@ -57291,7 +57291,7 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="3"/>
@@ -57357,7 +57357,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>27</v>
@@ -57413,7 +57413,7 @@
       </c>
       <c r="W27" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="3"/>
@@ -57479,7 +57479,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -57535,7 +57535,7 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="3"/>
@@ -57601,7 +57601,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -57657,7 +57657,7 @@
       </c>
       <c r="W29" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="3"/>
@@ -57723,7 +57723,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>27</v>
@@ -57779,7 +57779,7 @@
       </c>
       <c r="W30" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="3"/>
@@ -57845,7 +57845,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>27</v>
@@ -57901,7 +57901,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="3"/>
@@ -57967,7 +57967,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>27</v>
@@ -58023,7 +58023,7 @@
       </c>
       <c r="W32" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="3"/>
@@ -58089,7 +58089,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>27</v>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="W33" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="3"/>
@@ -58211,7 +58211,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>27</v>
@@ -58267,7 +58267,7 @@
       </c>
       <c r="W34" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="3"/>
@@ -58333,7 +58333,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>27</v>
@@ -58389,7 +58389,7 @@
       </c>
       <c r="W35" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="3"/>
@@ -58455,7 +58455,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>27</v>
@@ -58511,7 +58511,7 @@
       </c>
       <c r="W36" t="str">
         <f t="shared" si="3"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="3"/>
@@ -58577,7 +58577,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>27</v>
@@ -58633,7 +58633,7 @@
       </c>
       <c r="W37" t="str">
         <f t="shared" ref="W37:AD93" si="5">IF(D37&gt;0,CONCATENATE("popneed_",D$1," = ",D37),"")</f>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="5"/>
@@ -58699,7 +58699,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>27</v>
@@ -58755,7 +58755,7 @@
       </c>
       <c r="W38" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="5"/>
@@ -58821,7 +58821,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>27</v>
@@ -58877,7 +58877,7 @@
       </c>
       <c r="W39" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="5"/>
@@ -58943,7 +58943,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>27</v>
@@ -58999,7 +58999,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="5"/>
@@ -59065,7 +59065,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>27</v>
@@ -59121,7 +59121,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="5"/>
@@ -59187,7 +59187,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>27</v>
@@ -59243,7 +59243,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="5"/>
@@ -59309,7 +59309,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>27</v>
@@ -59365,7 +59365,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="5"/>
@@ -59431,7 +59431,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>27</v>
@@ -59487,7 +59487,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="5"/>
@@ -59553,7 +59553,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>27</v>
@@ -59609,7 +59609,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" si="5"/>
@@ -59675,7 +59675,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46">
         <v>27</v>
@@ -59731,7 +59731,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" si="5"/>
@@ -59797,7 +59797,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>27</v>
@@ -59853,7 +59853,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="5"/>
@@ -59919,7 +59919,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <v>27</v>
@@ -59975,7 +59975,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="5"/>
@@ -60041,7 +60041,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>27</v>
@@ -60097,7 +60097,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="5"/>
@@ -60163,7 +60163,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>27</v>
@@ -60219,7 +60219,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="5"/>
@@ -60285,7 +60285,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>27</v>
@@ -60341,7 +60341,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="5"/>
@@ -60407,7 +60407,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>27</v>
@@ -60463,7 +60463,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="5"/>
@@ -60529,7 +60529,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>27</v>
@@ -60585,7 +60585,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="5"/>
@@ -60651,7 +60651,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <v>27</v>
@@ -60707,7 +60707,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="5"/>
@@ -60773,7 +60773,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>27</v>
@@ -60829,7 +60829,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="5"/>
@@ -60895,7 +60895,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>27</v>
@@ -60951,7 +60951,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="5"/>
@@ -61017,7 +61017,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>27</v>
@@ -61073,7 +61073,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="5"/>
@@ -61139,7 +61139,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>27</v>
@@ -61195,7 +61195,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="5"/>
@@ -61261,7 +61261,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>27</v>
@@ -61317,7 +61317,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="5"/>
@@ -61383,7 +61383,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>27</v>
@@ -61439,7 +61439,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="5"/>
@@ -61505,7 +61505,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <v>27</v>
@@ -61561,7 +61561,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="5"/>
@@ -61627,7 +61627,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>27</v>
@@ -61683,7 +61683,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="5"/>
@@ -61749,7 +61749,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>27</v>
@@ -61805,7 +61805,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="5"/>
@@ -61871,7 +61871,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>27</v>
@@ -61927,7 +61927,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="5"/>
@@ -61993,7 +61993,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>27</v>
@@ -62049,7 +62049,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" si="5"/>
@@ -62115,7 +62115,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <v>27</v>
@@ -62171,7 +62171,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" si="5"/>
@@ -62237,7 +62237,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67">
         <v>27</v>
@@ -62293,7 +62293,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" si="5"/>
@@ -62359,7 +62359,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>27</v>
@@ -62415,7 +62415,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" si="5"/>
@@ -62481,7 +62481,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>27</v>
@@ -62537,7 +62537,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="5"/>
@@ -62603,7 +62603,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70">
         <v>27</v>
@@ -62659,7 +62659,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="5"/>
@@ -62725,7 +62725,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E71">
         <v>27</v>
@@ -62781,7 +62781,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" si="5"/>
@@ -62847,7 +62847,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>27</v>
@@ -62903,7 +62903,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="5"/>
@@ -62969,7 +62969,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73">
         <v>27</v>
@@ -63025,7 +63025,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" si="5"/>
@@ -63091,7 +63091,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E74">
         <v>27</v>
@@ -63147,7 +63147,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" si="5"/>
@@ -63213,7 +63213,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E75">
         <v>27</v>
@@ -63269,7 +63269,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" si="5"/>
@@ -63335,7 +63335,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -63391,7 +63391,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" si="5"/>
@@ -63457,7 +63457,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E77">
         <v>27</v>
@@ -63513,7 +63513,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" si="5"/>
@@ -63579,7 +63579,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E78">
         <v>27</v>
@@ -63635,7 +63635,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" si="5"/>
@@ -63701,7 +63701,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <v>27</v>
@@ -63757,7 +63757,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" si="5"/>
@@ -63823,7 +63823,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E80">
         <v>27</v>
@@ -63879,7 +63879,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" si="5"/>
@@ -63945,7 +63945,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E81">
         <v>27</v>
@@ -64001,7 +64001,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" si="5"/>
@@ -64067,7 +64067,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E82">
         <v>27</v>
@@ -64123,7 +64123,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" si="5"/>
@@ -64189,7 +64189,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <v>27</v>
@@ -64245,7 +64245,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" si="5"/>
@@ -64311,7 +64311,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>27</v>
@@ -64367,7 +64367,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" si="5"/>
@@ -64433,7 +64433,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E85">
         <v>27</v>
@@ -64489,7 +64489,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" si="5"/>
@@ -64555,7 +64555,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E86">
         <v>27</v>
@@ -64611,7 +64611,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" si="5"/>
@@ -64677,7 +64677,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>27</v>
@@ -64733,7 +64733,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" si="5"/>
@@ -64799,7 +64799,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <v>27</v>
@@ -64855,7 +64855,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" si="5"/>
@@ -64921,7 +64921,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E89">
         <v>27</v>
@@ -64977,7 +64977,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" si="5"/>
@@ -65043,7 +65043,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E90">
         <v>27</v>
@@ -65099,7 +65099,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" si="5"/>
@@ -65165,7 +65165,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E91">
         <v>27</v>
@@ -65221,7 +65221,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" si="5"/>
@@ -65287,7 +65287,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <v>27</v>
@@ -65343,7 +65343,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" si="5"/>
@@ -65409,7 +65409,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E93">
         <v>27</v>
@@ -65465,7 +65465,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" si="5"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="5"/>
@@ -65531,7 +65531,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E94">
         <v>27</v>
@@ -65587,7 +65587,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ref="W94:AB100" si="10">IF(D94&gt;0,CONCATENATE("popneed_",D$1," = ",D94),"")</f>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X94" t="str">
         <f t="shared" si="10"/>
@@ -65653,7 +65653,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E95">
         <v>27</v>
@@ -65709,7 +65709,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" si="10"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X95" t="str">
         <f t="shared" si="10"/>
@@ -65775,7 +65775,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E96">
         <v>27</v>
@@ -65831,7 +65831,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" si="10"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X96" t="str">
         <f t="shared" si="10"/>
@@ -65897,7 +65897,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E97">
         <v>27</v>
@@ -65953,7 +65953,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" si="10"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X97" t="str">
         <f t="shared" si="10"/>
@@ -66019,7 +66019,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E98">
         <v>27</v>
@@ -66075,7 +66075,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" si="10"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X98" t="str">
         <f t="shared" si="10"/>
@@ -66141,7 +66141,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E99">
         <v>27</v>
@@ -66197,7 +66197,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" si="10"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X99" t="str">
         <f t="shared" si="10"/>
@@ -66263,7 +66263,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E100">
         <v>27</v>
@@ -66319,7 +66319,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" si="10"/>
-        <v>popneed_heating = 8</v>
+        <v>popneed_heating = 6</v>
       </c>
       <c r="X100" t="str">
         <f t="shared" si="10"/>
